--- a/9.2 Internal Audit/yyyymmdd Customer name - ISMS internal audit report 27001v2022 v3.1.xlsx
+++ b/9.2 Internal Audit/yyyymmdd Customer name - ISMS internal audit report 27001v2022 v3.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://questforsecurity-my.sharepoint.com/personal/peter_questforsecurity_be/Documents/My Templates/ISO27001/9.2 Internal Audit Support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1295" documentId="8_{6FC50EC6-56A3-4BD3-81C9-71FAE1778595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B35A291B-D011-4348-AAE3-E1619B2E2797}"/>
+  <xr:revisionPtr revIDLastSave="1313" documentId="8_{6FC50EC6-56A3-4BD3-81C9-71FAE1778595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9A2AAB9-0B84-4F32-9764-A90B3165C7C3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="752" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9450" yWindow="-18120" windowWidth="29040" windowHeight="17520" tabRatio="752" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Front page" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="Lookup Tables" sheetId="8" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Checklist Mgmt Clauses'!$A$2:$U$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Checklist Annex Controls'!$A$2:$V$192</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Checklist Mgmt Clauses'!$A$2:$U$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="725">
   <si>
     <t>Structure</t>
   </si>
@@ -1934,9 +1935,6 @@
     <t>A.5.19 Information security in supplier relationships</t>
   </si>
   <si>
-    <t>A.5.2 Addressing information security within supplier agreements</t>
-  </si>
-  <si>
     <t>A.5.21 Managing information security in the information and communication technology (ICT) supply chain</t>
   </si>
   <si>
@@ -2927,6 +2925,21 @@
   </si>
   <si>
     <t>ISO/IEC 27001 Controls</t>
+  </si>
+  <si>
+    <t>A.5.20 Addressing information security within supplier agreements</t>
+  </si>
+  <si>
+    <t>6.3§0</t>
+  </si>
+  <si>
+    <t>6.3 Planning of changes</t>
+  </si>
+  <si>
+    <t>When the organization determines the need for changes to the information security management system, the changes shall be carried out in a planned manner.</t>
+  </si>
+  <si>
+    <t>6.3§1</t>
   </si>
 </sst>
 </file>
@@ -3143,6 +3156,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -10143,7 +10157,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.44140625" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" hidden="1"/>
@@ -10174,7 +10188,7 @@
       </c>
       <c r="B3" s="49">
         <f ca="1">NOW()</f>
-        <v>45163.927270370368</v>
+        <v>45946.419792708337</v>
       </c>
       <c r="C3" t="s">
         <v>139</v>
@@ -10186,7 +10200,7 @@
       </c>
       <c r="B4" s="49">
         <f ca="1">NOW()</f>
-        <v>45163.927270370368</v>
+        <v>45946.419792708337</v>
       </c>
       <c r="C4" t="s">
         <v>139</v>
@@ -10229,7 +10243,7 @@
       </c>
       <c r="B12" s="49">
         <f ca="1">NOW()</f>
-        <v>45163.927270370368</v>
+        <v>45946.419792708337</v>
       </c>
       <c r="C12" t="s">
         <v>139</v>
@@ -10266,7 +10280,7 @@
       </c>
       <c r="B17" s="49">
         <f ca="1">NOW()</f>
-        <v>45163.927270370368</v>
+        <v>45946.419792708337</v>
       </c>
       <c r="C17" t="s">
         <v>139</v>
@@ -10278,7 +10292,7 @@
       </c>
       <c r="B18" s="49">
         <f ca="1">NOW()</f>
-        <v>45163.927270370368</v>
+        <v>45946.419792708337</v>
       </c>
       <c r="C18" t="s">
         <v>139</v>
@@ -10290,7 +10304,7 @@
       </c>
       <c r="B19" s="49">
         <f ca="1">NOW()</f>
-        <v>45163.927270370368</v>
+        <v>45946.419792708337</v>
       </c>
       <c r="C19" t="s">
         <v>139</v>
@@ -10302,7 +10316,7 @@
       </c>
       <c r="B20" s="49">
         <f ca="1">NOW()</f>
-        <v>45163.927270370368</v>
+        <v>45946.419792708337</v>
       </c>
       <c r="C20" t="s">
         <v>139</v>
@@ -10349,7 +10363,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -10375,11 +10389,11 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="38">
         <f>SUM(C2:C7)</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="21">
-        <f>'Checklist Mgmt Clauses'!H94</f>
+        <f>'Checklist Mgmt Clauses'!H96</f>
         <v>0</v>
       </c>
     </row>
@@ -10388,7 +10402,7 @@
         <v>160</v>
       </c>
       <c r="C3" s="21">
-        <f>'Checklist Mgmt Clauses'!H95</f>
+        <f>'Checklist Mgmt Clauses'!H97</f>
         <v>1</v>
       </c>
     </row>
@@ -10397,8 +10411,8 @@
         <v>77</v>
       </c>
       <c r="C4" s="26">
-        <f>'Checklist Mgmt Clauses'!H96</f>
-        <v>50</v>
+        <f>'Checklist Mgmt Clauses'!H98</f>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -10406,7 +10420,7 @@
         <v>78</v>
       </c>
       <c r="C5" s="28">
-        <f>'Checklist Mgmt Clauses'!H97</f>
+        <f>'Checklist Mgmt Clauses'!H99</f>
         <v>1</v>
       </c>
     </row>
@@ -10415,8 +10429,8 @@
         <v>82</v>
       </c>
       <c r="C6" s="30">
-        <f>'Checklist Mgmt Clauses'!H98</f>
-        <v>1</v>
+        <f>'Checklist Mgmt Clauses'!H100</f>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -10424,8 +10438,8 @@
         <v>81</v>
       </c>
       <c r="C7" s="32">
-        <f>'Checklist Mgmt Clauses'!H99</f>
-        <v>1</v>
+        <f>'Checklist Mgmt Clauses'!H101</f>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25"/>
@@ -10457,7 +10471,7 @@
       </c>
       <c r="C11" s="21">
         <f>'Checklist Annex Controls'!I196</f>
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -10493,7 +10507,7 @@
       </c>
       <c r="C15" s="32">
         <f>'Checklist Annex Controls'!I200</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25"/>
@@ -10537,13 +10551,13 @@
     <tabColor rgb="FF0070C0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U100"/>
+  <dimension ref="A1:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -10551,10 +10565,10 @@
     <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77.44140625" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31" style="18" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.109375" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
@@ -10568,7 +10582,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>277</v>
@@ -10583,13 +10597,13 @@
         <v>279</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1" s="23" t="s">
         <v>104</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J1" s="151" t="s">
         <v>85</v>
@@ -10611,13 +10625,13 @@
     <row r="2" spans="1:21" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
       <c r="B2" s="54" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C2" s="109" t="s">
+        <v>704</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>705</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>706</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>157</v>
@@ -10647,7 +10661,7 @@
         <v>68</v>
       </c>
       <c r="N2" s="115" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O2" s="115" t="s">
         <v>165</v>
@@ -10656,19 +10670,19 @@
         <v>166</v>
       </c>
       <c r="Q2" s="115" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R2" s="115" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="S2" s="115" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="T2" s="115" t="s">
         <v>75</v>
       </c>
       <c r="U2" s="56" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="19.2" x14ac:dyDescent="0.3">
@@ -10739,19 +10753,19 @@
         <v>274</v>
       </c>
       <c r="E5" s="77" t="s">
+        <v>707</v>
+      </c>
+      <c r="F5" s="77" t="s">
         <v>708</v>
       </c>
-      <c r="F5" s="77" t="s">
+      <c r="G5" s="77" t="s">
         <v>709</v>
-      </c>
-      <c r="G5" s="77" t="s">
-        <v>710</v>
       </c>
       <c r="H5" s="79" t="s">
         <v>160</v>
       </c>
       <c r="I5" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J5" s="80" t="s">
         <v>66</v>
@@ -10810,22 +10824,22 @@
         <v>278</v>
       </c>
       <c r="D7" s="76" t="s">
+        <v>706</v>
+      </c>
+      <c r="E7" s="77" t="s">
         <v>707</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="F7" s="77" t="s">
         <v>708</v>
       </c>
-      <c r="F7" s="77" t="s">
+      <c r="G7" s="77" t="s">
         <v>709</v>
-      </c>
-      <c r="G7" s="77" t="s">
-        <v>710</v>
       </c>
       <c r="H7" s="79" t="s">
         <v>77</v>
       </c>
       <c r="I7" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J7" s="80" t="s">
         <v>66</v>
@@ -10891,7 +10905,7 @@
         <v>78</v>
       </c>
       <c r="I9" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J9" s="82" t="s">
         <v>66</v>
@@ -10930,7 +10944,7 @@
         <v>82</v>
       </c>
       <c r="I10" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J10" s="85" t="s">
         <v>66</v>
@@ -10969,7 +10983,7 @@
         <v>81</v>
       </c>
       <c r="I11" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J11" s="91" t="s">
         <v>66</v>
@@ -11035,7 +11049,7 @@
         <v>77</v>
       </c>
       <c r="I13" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J13" s="80" t="s">
         <v>66</v>
@@ -11128,7 +11142,7 @@
         <v>77</v>
       </c>
       <c r="I16" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J16" s="80" t="s">
         <v>66</v>
@@ -11192,7 +11206,7 @@
         <v>77</v>
       </c>
       <c r="I18" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J18" s="82" t="s">
         <v>66</v>
@@ -11231,7 +11245,7 @@
         <v>77</v>
       </c>
       <c r="I19" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J19" s="91" t="s">
         <v>66</v>
@@ -11297,7 +11311,7 @@
         <v>77</v>
       </c>
       <c r="I21" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J21" s="82" t="s">
         <v>66</v>
@@ -11338,7 +11352,7 @@
         <v>77</v>
       </c>
       <c r="I22" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J22" s="91" t="s">
         <v>66</v>
@@ -11460,7 +11474,7 @@
         <v>77</v>
       </c>
       <c r="I26" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J26" s="85" t="s">
         <v>66</v>
@@ -11517,7 +11531,7 @@
         <v>77</v>
       </c>
       <c r="I27" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J27" s="91" t="s">
         <v>66</v>
@@ -11603,7 +11617,7 @@
         <v>77</v>
       </c>
       <c r="I29" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J29" s="82" t="s">
         <v>66</v>
@@ -11642,7 +11656,7 @@
         <v>77</v>
       </c>
       <c r="I30" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J30" s="91" t="s">
         <v>66</v>
@@ -11705,10 +11719,10 @@
       <c r="F32" s="44"/>
       <c r="G32" s="12"/>
       <c r="H32" s="95" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I32" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J32" s="82" t="s">
         <v>66</v>
@@ -11747,7 +11761,7 @@
         <v>77</v>
       </c>
       <c r="I33" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J33" s="91" t="s">
         <v>66</v>
@@ -11813,7 +11827,7 @@
         <v>77</v>
       </c>
       <c r="I35" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J35" s="82" t="s">
         <v>66</v>
@@ -11852,7 +11866,7 @@
         <v>77</v>
       </c>
       <c r="I36" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J36" s="85" t="s">
         <v>66</v>
@@ -11891,7 +11905,7 @@
         <v>77</v>
       </c>
       <c r="I37" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J37" s="85" t="s">
         <v>66</v>
@@ -11930,7 +11944,7 @@
         <v>77</v>
       </c>
       <c r="I38" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J38" s="91" t="s">
         <v>66</v>
@@ -11951,18 +11965,18 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="B39" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="58"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="67"/>
+    <row r="39" spans="1:21" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="62" t="s">
+        <v>721</v>
+      </c>
+      <c r="B39" s="70" t="s">
+        <v>722</v>
+      </c>
+      <c r="C39" s="70"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="64"/>
       <c r="H39" s="147"/>
       <c r="I39" s="147"/>
       <c r="J39" s="147"/>
@@ -11978,82 +11992,84 @@
       <c r="T39" s="147"/>
       <c r="U39" s="147"/>
     </row>
-    <row r="40" spans="1:21" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="59" t="s">
+    <row r="40" spans="1:21" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="74" t="s">
+        <v>724</v>
+      </c>
+      <c r="B40" s="101" t="s">
+        <v>723</v>
+      </c>
+      <c r="C40" s="108" t="s">
+        <v>278</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="I40" s="84" t="s">
+        <v>710</v>
+      </c>
+      <c r="J40" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="M40" s="82"/>
+      <c r="N40" s="82"/>
+      <c r="O40" s="82"/>
+      <c r="P40" s="82"/>
+      <c r="Q40" s="82"/>
+      <c r="R40" s="82"/>
+      <c r="S40" s="82"/>
+      <c r="T40" s="82"/>
+      <c r="U40" s="82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="B41" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="58"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="147"/>
+      <c r="I41" s="147"/>
+      <c r="J41" s="147"/>
+      <c r="K41" s="147"/>
+      <c r="L41" s="147"/>
+      <c r="M41" s="147"/>
+      <c r="N41" s="147"/>
+      <c r="O41" s="147"/>
+      <c r="P41" s="147"/>
+      <c r="Q41" s="147"/>
+      <c r="R41" s="147"/>
+      <c r="S41" s="147"/>
+      <c r="T41" s="147"/>
+      <c r="U41" s="147"/>
+    </row>
+    <row r="42" spans="1:21" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="B40" s="68" t="s">
+      <c r="B42" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="68"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="147"/>
-      <c r="I40" s="147"/>
-      <c r="J40" s="147"/>
-      <c r="K40" s="147"/>
-      <c r="L40" s="147"/>
-      <c r="M40" s="147"/>
-      <c r="N40" s="147"/>
-      <c r="O40" s="147"/>
-      <c r="P40" s="147"/>
-      <c r="Q40" s="147"/>
-      <c r="R40" s="147"/>
-      <c r="S40" s="147"/>
-      <c r="T40" s="147"/>
-      <c r="U40" s="147"/>
-    </row>
-    <row r="41" spans="1:21" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="74" t="s">
-        <v>203</v>
-      </c>
-      <c r="B41" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="108" t="s">
-        <v>278</v>
-      </c>
-      <c r="D41" s="76"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="I41" s="84" t="s">
-        <v>711</v>
-      </c>
-      <c r="J41" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="K41" s="80"/>
-      <c r="L41" s="80"/>
-      <c r="M41" s="80"/>
-      <c r="N41" s="80"/>
-      <c r="O41" s="80"/>
-      <c r="P41" s="80"/>
-      <c r="Q41" s="80"/>
-      <c r="R41" s="80"/>
-      <c r="S41" s="80"/>
-      <c r="T41" s="80"/>
-      <c r="U41" s="80" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="62" t="s">
-        <v>204</v>
-      </c>
-      <c r="B42" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="70"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="64"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="69"/>
       <c r="H42" s="147"/>
       <c r="I42" s="147"/>
       <c r="J42" s="147"/>
@@ -12069,32 +12085,30 @@
       <c r="T42" s="147"/>
       <c r="U42" s="147"/>
     </row>
-    <row r="43" spans="1:21" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A43" s="74" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B43" s="75" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C43" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="D43" s="102"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="103"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
       <c r="G43" s="78"/>
       <c r="H43" s="79" t="s">
         <v>77</v>
       </c>
       <c r="I43" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J43" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="K43" s="80" t="s">
-        <v>66</v>
-      </c>
+      <c r="K43" s="80"/>
       <c r="L43" s="80"/>
       <c r="M43" s="80"/>
       <c r="N43" s="80"/>
@@ -12110,10 +12124,10 @@
     </row>
     <row r="44" spans="1:21" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A44" s="62" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B44" s="70" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C44" s="70"/>
       <c r="D44" s="63"/>
@@ -12135,25 +12149,25 @@
       <c r="T44" s="147"/>
       <c r="U44" s="147"/>
     </row>
-    <row r="45" spans="1:21" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A45" s="74" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B45" s="75" t="s">
-        <v>264</v>
+        <v>26</v>
       </c>
       <c r="C45" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="D45" s="76"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="76"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="78"/>
       <c r="H45" s="79" t="s">
         <v>77</v>
       </c>
       <c r="I45" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J45" s="80" t="s">
         <v>66</v>
@@ -12161,9 +12175,7 @@
       <c r="K45" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="L45" s="80" t="s">
-        <v>66</v>
-      </c>
+      <c r="L45" s="80"/>
       <c r="M45" s="80"/>
       <c r="N45" s="80"/>
       <c r="O45" s="80"/>
@@ -12178,10 +12190,10 @@
     </row>
     <row r="46" spans="1:21" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A46" s="62" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B46" s="70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" s="70"/>
       <c r="D46" s="63"/>
@@ -12203,245 +12215,229 @@
       <c r="T46" s="147"/>
       <c r="U46" s="147"/>
     </row>
-    <row r="47" spans="1:21" ht="66" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A47" s="74" t="s">
-        <v>209</v>
-      </c>
-      <c r="B47" s="104" t="s">
-        <v>126</v>
+        <v>207</v>
+      </c>
+      <c r="B47" s="75" t="s">
+        <v>264</v>
       </c>
       <c r="C47" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="D47" s="87"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="90" t="s">
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="79" t="s">
         <v>77</v>
       </c>
       <c r="I47" s="84" t="s">
-        <v>711</v>
-      </c>
-      <c r="J47" s="91" t="s">
+        <v>710</v>
+      </c>
+      <c r="J47" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="K47" s="91" t="s">
+      <c r="K47" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="L47" s="91" t="s">
+      <c r="L47" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="M47" s="91"/>
-      <c r="N47" s="91"/>
-      <c r="O47" s="91"/>
-      <c r="P47" s="91"/>
-      <c r="Q47" s="91"/>
-      <c r="R47" s="91"/>
-      <c r="S47" s="91"/>
-      <c r="T47" s="91"/>
-      <c r="U47" s="91" t="s">
+      <c r="M47" s="80"/>
+      <c r="N47" s="80"/>
+      <c r="O47" s="80"/>
+      <c r="P47" s="80"/>
+      <c r="Q47" s="80"/>
+      <c r="R47" s="80"/>
+      <c r="S47" s="80"/>
+      <c r="T47" s="80"/>
+      <c r="U47" s="80" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="74" t="s">
+    <row r="48" spans="1:21" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="B48" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="70"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="147"/>
+      <c r="I48" s="147"/>
+      <c r="J48" s="147"/>
+      <c r="K48" s="147"/>
+      <c r="L48" s="147"/>
+      <c r="M48" s="147"/>
+      <c r="N48" s="147"/>
+      <c r="O48" s="147"/>
+      <c r="P48" s="147"/>
+      <c r="Q48" s="147"/>
+      <c r="R48" s="147"/>
+      <c r="S48" s="147"/>
+      <c r="T48" s="147"/>
+      <c r="U48" s="147"/>
+    </row>
+    <row r="49" spans="1:21" ht="66" x14ac:dyDescent="0.3">
+      <c r="A49" s="74" t="s">
+        <v>209</v>
+      </c>
+      <c r="B49" s="104" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="108" t="s">
+        <v>278</v>
+      </c>
+      <c r="D49" s="87"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="I49" s="84" t="s">
+        <v>710</v>
+      </c>
+      <c r="J49" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="K49" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="L49" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="M49" s="91"/>
+      <c r="N49" s="91"/>
+      <c r="O49" s="91"/>
+      <c r="P49" s="91"/>
+      <c r="Q49" s="91"/>
+      <c r="R49" s="91"/>
+      <c r="S49" s="91"/>
+      <c r="T49" s="91"/>
+      <c r="U49" s="91" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="74" t="s">
         <v>210</v>
       </c>
-      <c r="B48" s="104" t="s">
+      <c r="B50" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="108" t="s">
+      <c r="C50" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="D48" s="87"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="90" t="s">
+      <c r="D50" s="87"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="I48" s="84" t="s">
-        <v>711</v>
-      </c>
-      <c r="J48" s="91" t="s">
+      <c r="I50" s="84" t="s">
+        <v>710</v>
+      </c>
+      <c r="J50" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="K48" s="91" t="s">
+      <c r="K50" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="L48" s="91" t="s">
+      <c r="L50" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="M48" s="91"/>
-      <c r="N48" s="91"/>
-      <c r="O48" s="91"/>
-      <c r="P48" s="91"/>
-      <c r="Q48" s="91"/>
-      <c r="R48" s="91"/>
-      <c r="S48" s="91"/>
-      <c r="T48" s="91"/>
-      <c r="U48" s="91" t="s">
+      <c r="M50" s="91"/>
+      <c r="N50" s="91"/>
+      <c r="O50" s="91"/>
+      <c r="P50" s="91"/>
+      <c r="Q50" s="91"/>
+      <c r="R50" s="91"/>
+      <c r="S50" s="91"/>
+      <c r="T50" s="91"/>
+      <c r="U50" s="91" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="57" t="s">
+    <row r="51" spans="1:21" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="B49" s="72" t="s">
+      <c r="B51" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="72"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="147"/>
-      <c r="I49" s="147"/>
-      <c r="J49" s="147"/>
-      <c r="K49" s="147"/>
-      <c r="L49" s="147"/>
-      <c r="M49" s="147"/>
-      <c r="N49" s="147"/>
-      <c r="O49" s="147"/>
-      <c r="P49" s="147"/>
-      <c r="Q49" s="147"/>
-      <c r="R49" s="147"/>
-      <c r="S49" s="147"/>
-      <c r="T49" s="147"/>
-      <c r="U49" s="147"/>
-    </row>
-    <row r="50" spans="1:21" ht="30" x14ac:dyDescent="0.3">
-      <c r="A50" s="59" t="s">
+      <c r="C51" s="72"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="147"/>
+      <c r="I51" s="147"/>
+      <c r="J51" s="147"/>
+      <c r="K51" s="147"/>
+      <c r="L51" s="147"/>
+      <c r="M51" s="147"/>
+      <c r="N51" s="147"/>
+      <c r="O51" s="147"/>
+      <c r="P51" s="147"/>
+      <c r="Q51" s="147"/>
+      <c r="R51" s="147"/>
+      <c r="S51" s="147"/>
+      <c r="T51" s="147"/>
+      <c r="U51" s="147"/>
+    </row>
+    <row r="52" spans="1:21" ht="30" x14ac:dyDescent="0.3">
+      <c r="A52" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="B50" s="73" t="s">
+      <c r="B52" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="73"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="147"/>
-      <c r="I50" s="147"/>
-      <c r="J50" s="147"/>
-      <c r="K50" s="147"/>
-      <c r="L50" s="147"/>
-      <c r="M50" s="147"/>
-      <c r="N50" s="147"/>
-      <c r="O50" s="147"/>
-      <c r="P50" s="147"/>
-      <c r="Q50" s="147"/>
-      <c r="R50" s="147"/>
-      <c r="S50" s="147"/>
-      <c r="T50" s="147"/>
-      <c r="U50" s="147"/>
-    </row>
-    <row r="51" spans="1:21" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="74" t="s">
+      <c r="C52" s="73"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="147"/>
+      <c r="I52" s="147"/>
+      <c r="J52" s="147"/>
+      <c r="K52" s="147"/>
+      <c r="L52" s="147"/>
+      <c r="M52" s="147"/>
+      <c r="N52" s="147"/>
+      <c r="O52" s="147"/>
+      <c r="P52" s="147"/>
+      <c r="Q52" s="147"/>
+      <c r="R52" s="147"/>
+      <c r="S52" s="147"/>
+      <c r="T52" s="147"/>
+      <c r="U52" s="147"/>
+    </row>
+    <row r="53" spans="1:21" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="B51" s="75" t="s">
+      <c r="B53" s="75" t="s">
         <v>265</v>
-      </c>
-      <c r="C51" s="108" t="s">
-        <v>278</v>
-      </c>
-      <c r="D51" s="76"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="76"/>
-      <c r="H51" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="I51" s="84" t="s">
-        <v>711</v>
-      </c>
-      <c r="J51" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="K51" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="L51" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="M51" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="N51" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="O51" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="P51" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q51" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="R51" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="S51" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="T51" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="U51" s="80" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" ht="30" x14ac:dyDescent="0.3">
-      <c r="A52" s="62" t="s">
-        <v>214</v>
-      </c>
-      <c r="B52" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="C52" s="71"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="66"/>
-      <c r="K52" s="66"/>
-      <c r="L52" s="66"/>
-      <c r="M52" s="66"/>
-      <c r="N52" s="66"/>
-      <c r="O52" s="66"/>
-      <c r="P52" s="66"/>
-      <c r="Q52" s="66"/>
-      <c r="R52" s="66"/>
-      <c r="S52" s="66"/>
-      <c r="T52" s="66"/>
-      <c r="U52" s="66"/>
-    </row>
-    <row r="53" spans="1:21" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="B53" s="75" t="s">
-        <v>33</v>
       </c>
       <c r="C53" s="108" t="s">
         <v>278</v>
       </c>
       <c r="D53" s="76"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="78"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
       <c r="H53" s="79" t="s">
         <v>77</v>
       </c>
       <c r="I53" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J53" s="80" t="s">
         <v>66</v>
@@ -12482,50 +12478,50 @@
     </row>
     <row r="54" spans="1:21" ht="30" x14ac:dyDescent="0.3">
       <c r="A54" s="62" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B54" s="71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C54" s="71"/>
       <c r="D54" s="63"/>
       <c r="E54" s="63"/>
       <c r="F54" s="63"/>
       <c r="G54" s="64"/>
-      <c r="H54" s="147"/>
-      <c r="I54" s="147"/>
-      <c r="J54" s="147"/>
-      <c r="K54" s="147"/>
-      <c r="L54" s="147"/>
-      <c r="M54" s="147"/>
-      <c r="N54" s="147"/>
-      <c r="O54" s="147"/>
-      <c r="P54" s="147"/>
-      <c r="Q54" s="147"/>
-      <c r="R54" s="147"/>
-      <c r="S54" s="147"/>
-      <c r="T54" s="147"/>
-      <c r="U54" s="147"/>
-    </row>
-    <row r="55" spans="1:21" ht="66" x14ac:dyDescent="0.3">
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="66"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="66"/>
+      <c r="M54" s="66"/>
+      <c r="N54" s="66"/>
+      <c r="O54" s="66"/>
+      <c r="P54" s="66"/>
+      <c r="Q54" s="66"/>
+      <c r="R54" s="66"/>
+      <c r="S54" s="66"/>
+      <c r="T54" s="66"/>
+      <c r="U54" s="66"/>
+    </row>
+    <row r="55" spans="1:21" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A55" s="74" t="s">
-        <v>217</v>
-      </c>
-      <c r="B55" s="81" t="s">
-        <v>35</v>
+        <v>215</v>
+      </c>
+      <c r="B55" s="75" t="s">
+        <v>33</v>
       </c>
       <c r="C55" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="95" t="s">
+      <c r="D55" s="76"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="78"/>
+      <c r="H55" s="79" t="s">
         <v>77</v>
       </c>
       <c r="I55" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J55" s="80" t="s">
         <v>66</v>
@@ -12560,86 +12556,56 @@
       <c r="T55" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="U55" s="82" t="s">
+      <c r="U55" s="80" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="B56" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="108" t="s">
-        <v>278</v>
-      </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="I56" s="84" t="s">
-        <v>711</v>
-      </c>
-      <c r="J56" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="K56" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="L56" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="M56" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="N56" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="O56" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="P56" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q56" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="R56" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="S56" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="T56" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="U56" s="85" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" ht="30" x14ac:dyDescent="0.3">
+      <c r="A56" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="B56" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="71"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="147"/>
+      <c r="I56" s="147"/>
+      <c r="J56" s="147"/>
+      <c r="K56" s="147"/>
+      <c r="L56" s="147"/>
+      <c r="M56" s="147"/>
+      <c r="N56" s="147"/>
+      <c r="O56" s="147"/>
+      <c r="P56" s="147"/>
+      <c r="Q56" s="147"/>
+      <c r="R56" s="147"/>
+      <c r="S56" s="147"/>
+      <c r="T56" s="147"/>
+      <c r="U56" s="147"/>
+    </row>
+    <row r="57" spans="1:21" ht="66" x14ac:dyDescent="0.3">
       <c r="A57" s="74" t="s">
-        <v>219</v>
-      </c>
-      <c r="B57" s="86" t="s">
-        <v>37</v>
+        <v>217</v>
+      </c>
+      <c r="B57" s="81" t="s">
+        <v>35</v>
       </c>
       <c r="C57" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="D57" s="87"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="88"/>
-      <c r="G57" s="89"/>
-      <c r="H57" s="90" t="s">
+      <c r="D57" s="11"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="95" t="s">
         <v>77</v>
       </c>
       <c r="I57" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J57" s="80" t="s">
         <v>66</v>
@@ -12674,197 +12640,197 @@
       <c r="T57" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="U57" s="91" t="s">
+      <c r="U57" s="82" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="57" t="s">
+    <row r="58" spans="1:21" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="74" t="s">
+        <v>218</v>
+      </c>
+      <c r="B58" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="108" t="s">
+        <v>278</v>
+      </c>
+      <c r="D58" s="13"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="I58" s="84" t="s">
+        <v>710</v>
+      </c>
+      <c r="J58" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="K58" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="L58" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="M58" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="N58" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="O58" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="P58" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q58" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="R58" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="S58" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="T58" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="U58" s="85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="74" t="s">
+        <v>219</v>
+      </c>
+      <c r="B59" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" s="108" t="s">
+        <v>278</v>
+      </c>
+      <c r="D59" s="87"/>
+      <c r="E59" s="88"/>
+      <c r="F59" s="88"/>
+      <c r="G59" s="89"/>
+      <c r="H59" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="I59" s="84" t="s">
+        <v>710</v>
+      </c>
+      <c r="J59" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="K59" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="L59" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="M59" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="N59" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="O59" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="P59" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q59" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="R59" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="S59" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="T59" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="U59" s="91" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="B58" s="58" t="s">
+      <c r="B60" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="58"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="147"/>
-      <c r="I58" s="147"/>
-      <c r="J58" s="147"/>
-      <c r="K58" s="147"/>
-      <c r="L58" s="147"/>
-      <c r="M58" s="147"/>
-      <c r="N58" s="147"/>
-      <c r="O58" s="147"/>
-      <c r="P58" s="147"/>
-      <c r="Q58" s="147"/>
-      <c r="R58" s="147"/>
-      <c r="S58" s="147"/>
-      <c r="T58" s="147"/>
-      <c r="U58" s="147"/>
-    </row>
-    <row r="59" spans="1:21" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="59" t="s">
+      <c r="C60" s="58"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="147"/>
+      <c r="I60" s="147"/>
+      <c r="J60" s="147"/>
+      <c r="K60" s="147"/>
+      <c r="L60" s="147"/>
+      <c r="M60" s="147"/>
+      <c r="N60" s="147"/>
+      <c r="O60" s="147"/>
+      <c r="P60" s="147"/>
+      <c r="Q60" s="147"/>
+      <c r="R60" s="147"/>
+      <c r="S60" s="147"/>
+      <c r="T60" s="147"/>
+      <c r="U60" s="147"/>
+    </row>
+    <row r="61" spans="1:21" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="B59" s="68" t="s">
+      <c r="B61" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="68"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="147"/>
-      <c r="I59" s="147"/>
-      <c r="J59" s="147"/>
-      <c r="K59" s="147"/>
-      <c r="L59" s="147"/>
-      <c r="M59" s="147"/>
-      <c r="N59" s="147"/>
-      <c r="O59" s="147"/>
-      <c r="P59" s="147"/>
-      <c r="Q59" s="147"/>
-      <c r="R59" s="147"/>
-      <c r="S59" s="147"/>
-      <c r="T59" s="147"/>
-      <c r="U59" s="147"/>
-    </row>
-    <row r="60" spans="1:21" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="74" t="s">
-        <v>222</v>
-      </c>
-      <c r="B60" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="C60" s="108" t="s">
-        <v>278</v>
-      </c>
-      <c r="D60" s="105"/>
-      <c r="E60" s="105"/>
-      <c r="F60" s="105"/>
-      <c r="G60" s="105"/>
-      <c r="H60" s="95" t="s">
-        <v>77</v>
-      </c>
-      <c r="I60" s="84" t="s">
-        <v>711</v>
-      </c>
-      <c r="J60" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="K60" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="L60" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="M60" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="N60" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="O60" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="P60" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q60" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="R60" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="S60" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="T60" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="U60" s="82" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="74" t="s">
-        <v>223</v>
-      </c>
-      <c r="B61" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" s="108" t="s">
-        <v>278</v>
-      </c>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="I61" s="84" t="s">
-        <v>711</v>
-      </c>
-      <c r="J61" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="K61" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="L61" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="M61" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="N61" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="O61" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="P61" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q61" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="R61" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="S61" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="T61" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="U61" s="85" t="s">
-        <v>86</v>
-      </c>
+      <c r="C61" s="68"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="147"/>
+      <c r="I61" s="147"/>
+      <c r="J61" s="147"/>
+      <c r="K61" s="147"/>
+      <c r="L61" s="147"/>
+      <c r="M61" s="147"/>
+      <c r="N61" s="147"/>
+      <c r="O61" s="147"/>
+      <c r="P61" s="147"/>
+      <c r="Q61" s="147"/>
+      <c r="R61" s="147"/>
+      <c r="S61" s="147"/>
+      <c r="T61" s="147"/>
+      <c r="U61" s="147"/>
     </row>
     <row r="62" spans="1:21" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A62" s="74" t="s">
-        <v>224</v>
-      </c>
-      <c r="B62" s="83" t="s">
-        <v>42</v>
+        <v>222</v>
+      </c>
+      <c r="B62" s="81" t="s">
+        <v>40</v>
       </c>
       <c r="C62" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="D62" s="13"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="84" t="s">
+      <c r="D62" s="105"/>
+      <c r="E62" s="105"/>
+      <c r="F62" s="105"/>
+      <c r="G62" s="105"/>
+      <c r="H62" s="95" t="s">
         <v>77</v>
       </c>
       <c r="I62" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J62" s="80" t="s">
         <v>66</v>
@@ -12899,29 +12865,29 @@
       <c r="T62" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="U62" s="85" t="s">
+      <c r="U62" s="82" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:21" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A63" s="74" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B63" s="83" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C63" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="D63" s="15"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="14"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
       <c r="H63" s="84" t="s">
         <v>77</v>
       </c>
       <c r="I63" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J63" s="80" t="s">
         <v>66</v>
@@ -12960,25 +12926,25 @@
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A64" s="74" t="s">
-        <v>226</v>
-      </c>
-      <c r="B64" s="86" t="s">
-        <v>44</v>
+        <v>224</v>
+      </c>
+      <c r="B64" s="83" t="s">
+        <v>42</v>
       </c>
       <c r="C64" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="D64" s="98"/>
-      <c r="E64" s="99"/>
-      <c r="F64" s="99"/>
-      <c r="G64" s="89"/>
-      <c r="H64" s="90" t="s">
+      <c r="D64" s="13"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="84" t="s">
         <v>77</v>
       </c>
       <c r="I64" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J64" s="80" t="s">
         <v>66</v>
@@ -13013,825 +12979,873 @@
       <c r="T64" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="U64" s="91" t="s">
+      <c r="U64" s="85" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="B65" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="C65" s="70"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="147"/>
-      <c r="I65" s="147"/>
-      <c r="J65" s="147"/>
-      <c r="K65" s="147"/>
-      <c r="L65" s="147"/>
-      <c r="M65" s="147"/>
-      <c r="N65" s="147"/>
-      <c r="O65" s="147"/>
-      <c r="P65" s="147"/>
-      <c r="Q65" s="147"/>
-      <c r="R65" s="147"/>
-      <c r="S65" s="147"/>
-      <c r="T65" s="147"/>
-      <c r="U65" s="147"/>
-    </row>
-    <row r="66" spans="1:21" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="74" t="s">
+        <v>225</v>
+      </c>
+      <c r="B65" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="108" t="s">
+        <v>278</v>
+      </c>
+      <c r="D65" s="15"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="I65" s="84" t="s">
+        <v>710</v>
+      </c>
+      <c r="J65" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="K65" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="L65" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="M65" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="N65" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="O65" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="P65" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q65" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="R65" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="S65" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="T65" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="U65" s="85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A66" s="74" t="s">
-        <v>228</v>
-      </c>
-      <c r="B66" s="81" t="s">
-        <v>46</v>
+        <v>226</v>
+      </c>
+      <c r="B66" s="86" t="s">
+        <v>44</v>
       </c>
       <c r="C66" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="D66" s="11"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="95" t="s">
+      <c r="D66" s="98"/>
+      <c r="E66" s="99"/>
+      <c r="F66" s="99"/>
+      <c r="G66" s="89"/>
+      <c r="H66" s="90" t="s">
         <v>77</v>
       </c>
       <c r="I66" s="84" t="s">
-        <v>711</v>
-      </c>
-      <c r="J66" s="82" t="s">
+        <v>710</v>
+      </c>
+      <c r="J66" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="K66" s="82"/>
-      <c r="L66" s="82" t="s">
+      <c r="K66" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="M66" s="82"/>
-      <c r="N66" s="82"/>
-      <c r="O66" s="82"/>
-      <c r="P66" s="82"/>
-      <c r="Q66" s="82"/>
-      <c r="R66" s="82"/>
-      <c r="S66" s="82"/>
-      <c r="T66" s="82"/>
-      <c r="U66" s="82" t="s">
+      <c r="L66" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="M66" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="N66" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="O66" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="P66" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q66" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="R66" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="S66" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="T66" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="U66" s="91" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="74" t="s">
+    <row r="67" spans="1:21" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="B67" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="70"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="147"/>
+      <c r="I67" s="147"/>
+      <c r="J67" s="147"/>
+      <c r="K67" s="147"/>
+      <c r="L67" s="147"/>
+      <c r="M67" s="147"/>
+      <c r="N67" s="147"/>
+      <c r="O67" s="147"/>
+      <c r="P67" s="147"/>
+      <c r="Q67" s="147"/>
+      <c r="R67" s="147"/>
+      <c r="S67" s="147"/>
+      <c r="T67" s="147"/>
+      <c r="U67" s="147"/>
+    </row>
+    <row r="68" spans="1:21" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="74" t="s">
+        <v>228</v>
+      </c>
+      <c r="B68" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" s="108" t="s">
+        <v>278</v>
+      </c>
+      <c r="D68" s="11"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="I68" s="84" t="s">
+        <v>710</v>
+      </c>
+      <c r="J68" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="K68" s="82"/>
+      <c r="L68" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="M68" s="82"/>
+      <c r="N68" s="82"/>
+      <c r="O68" s="82"/>
+      <c r="P68" s="82"/>
+      <c r="Q68" s="82"/>
+      <c r="R68" s="82"/>
+      <c r="S68" s="82"/>
+      <c r="T68" s="82"/>
+      <c r="U68" s="82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="74" t="s">
         <v>229</v>
       </c>
-      <c r="B67" s="86" t="s">
+      <c r="B69" s="86" t="s">
         <v>47</v>
-      </c>
-      <c r="C67" s="108" t="s">
-        <v>278</v>
-      </c>
-      <c r="D67" s="87"/>
-      <c r="E67" s="88"/>
-      <c r="F67" s="88"/>
-      <c r="G67" s="89"/>
-      <c r="H67" s="90" t="s">
-        <v>77</v>
-      </c>
-      <c r="I67" s="84" t="s">
-        <v>711</v>
-      </c>
-      <c r="J67" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="K67" s="91"/>
-      <c r="L67" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="M67" s="91"/>
-      <c r="N67" s="91"/>
-      <c r="O67" s="91"/>
-      <c r="P67" s="91"/>
-      <c r="Q67" s="91"/>
-      <c r="R67" s="91"/>
-      <c r="S67" s="91"/>
-      <c r="T67" s="91"/>
-      <c r="U67" s="91" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="62" t="s">
-        <v>230</v>
-      </c>
-      <c r="B68" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="C68" s="70"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="64"/>
-      <c r="H68" s="147"/>
-      <c r="I68" s="147"/>
-      <c r="J68" s="147"/>
-      <c r="K68" s="147"/>
-      <c r="L68" s="147"/>
-      <c r="M68" s="147"/>
-      <c r="N68" s="147"/>
-      <c r="O68" s="147"/>
-      <c r="P68" s="147"/>
-      <c r="Q68" s="147"/>
-      <c r="R68" s="147"/>
-      <c r="S68" s="147"/>
-      <c r="T68" s="147"/>
-      <c r="U68" s="147"/>
-    </row>
-    <row r="69" spans="1:21" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="74" t="s">
-        <v>231</v>
-      </c>
-      <c r="B69" s="81" t="s">
-        <v>49</v>
       </c>
       <c r="C69" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="D69" s="11"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="95" t="s">
+      <c r="D69" s="87"/>
+      <c r="E69" s="88"/>
+      <c r="F69" s="88"/>
+      <c r="G69" s="89"/>
+      <c r="H69" s="90" t="s">
         <v>77</v>
       </c>
       <c r="I69" s="84" t="s">
-        <v>711</v>
-      </c>
-      <c r="J69" s="82" t="s">
+        <v>710</v>
+      </c>
+      <c r="J69" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="K69" s="82"/>
-      <c r="L69" s="82" t="s">
+      <c r="K69" s="91"/>
+      <c r="L69" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="M69" s="82"/>
-      <c r="N69" s="82"/>
-      <c r="O69" s="82"/>
-      <c r="P69" s="82"/>
-      <c r="Q69" s="82"/>
-      <c r="R69" s="82"/>
-      <c r="S69" s="82"/>
-      <c r="T69" s="82"/>
-      <c r="U69" s="82" t="s">
+      <c r="M69" s="91"/>
+      <c r="N69" s="91"/>
+      <c r="O69" s="91"/>
+      <c r="P69" s="91"/>
+      <c r="Q69" s="91"/>
+      <c r="R69" s="91"/>
+      <c r="S69" s="91"/>
+      <c r="T69" s="91"/>
+      <c r="U69" s="91" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="74" t="s">
+    <row r="70" spans="1:21" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="B70" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="70"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="63"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="147"/>
+      <c r="I70" s="147"/>
+      <c r="J70" s="147"/>
+      <c r="K70" s="147"/>
+      <c r="L70" s="147"/>
+      <c r="M70" s="147"/>
+      <c r="N70" s="147"/>
+      <c r="O70" s="147"/>
+      <c r="P70" s="147"/>
+      <c r="Q70" s="147"/>
+      <c r="R70" s="147"/>
+      <c r="S70" s="147"/>
+      <c r="T70" s="147"/>
+      <c r="U70" s="147"/>
+    </row>
+    <row r="71" spans="1:21" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="B71" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" s="108" t="s">
+        <v>278</v>
+      </c>
+      <c r="D71" s="11"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="I71" s="84" t="s">
+        <v>710</v>
+      </c>
+      <c r="J71" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="K71" s="82"/>
+      <c r="L71" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="M71" s="82"/>
+      <c r="N71" s="82"/>
+      <c r="O71" s="82"/>
+      <c r="P71" s="82"/>
+      <c r="Q71" s="82"/>
+      <c r="R71" s="82"/>
+      <c r="S71" s="82"/>
+      <c r="T71" s="82"/>
+      <c r="U71" s="82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A72" s="74" t="s">
         <v>232</v>
       </c>
-      <c r="B70" s="86" t="s">
+      <c r="B72" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="C70" s="108" t="s">
+      <c r="C72" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="D70" s="87"/>
-      <c r="E70" s="88"/>
-      <c r="F70" s="88"/>
-      <c r="G70" s="89"/>
-      <c r="H70" s="90" t="s">
+      <c r="D72" s="87"/>
+      <c r="E72" s="88"/>
+      <c r="F72" s="88"/>
+      <c r="G72" s="89"/>
+      <c r="H72" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="I70" s="84" t="s">
-        <v>711</v>
-      </c>
-      <c r="J70" s="91" t="s">
+      <c r="I72" s="84" t="s">
+        <v>710</v>
+      </c>
+      <c r="J72" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="K70" s="91"/>
-      <c r="L70" s="91" t="s">
+      <c r="K72" s="91"/>
+      <c r="L72" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="M70" s="91"/>
-      <c r="N70" s="91"/>
-      <c r="O70" s="91"/>
-      <c r="P70" s="91"/>
-      <c r="Q70" s="91"/>
-      <c r="R70" s="91"/>
-      <c r="S70" s="91"/>
-      <c r="T70" s="91"/>
-      <c r="U70" s="91" t="s">
+      <c r="M72" s="91"/>
+      <c r="N72" s="91"/>
+      <c r="O72" s="91"/>
+      <c r="P72" s="91"/>
+      <c r="Q72" s="91"/>
+      <c r="R72" s="91"/>
+      <c r="S72" s="91"/>
+      <c r="T72" s="91"/>
+      <c r="U72" s="91" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A71" s="57" t="s">
+    <row r="73" spans="1:21" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="B71" s="58" t="s">
+      <c r="B73" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="C71" s="58"/>
-      <c r="D71" s="52"/>
-      <c r="E71" s="52"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="67"/>
-      <c r="H71" s="147"/>
-      <c r="I71" s="147"/>
-      <c r="J71" s="147"/>
-      <c r="K71" s="147"/>
-      <c r="L71" s="147"/>
-      <c r="M71" s="147"/>
-      <c r="N71" s="147"/>
-      <c r="O71" s="147"/>
-      <c r="P71" s="147"/>
-      <c r="Q71" s="147"/>
-      <c r="R71" s="147"/>
-      <c r="S71" s="147"/>
-      <c r="T71" s="147"/>
-      <c r="U71" s="147"/>
-    </row>
-    <row r="72" spans="1:21" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="59" t="s">
+      <c r="C73" s="58"/>
+      <c r="D73" s="52"/>
+      <c r="E73" s="52"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="147"/>
+      <c r="I73" s="147"/>
+      <c r="J73" s="147"/>
+      <c r="K73" s="147"/>
+      <c r="L73" s="147"/>
+      <c r="M73" s="147"/>
+      <c r="N73" s="147"/>
+      <c r="O73" s="147"/>
+      <c r="P73" s="147"/>
+      <c r="Q73" s="147"/>
+      <c r="R73" s="147"/>
+      <c r="S73" s="147"/>
+      <c r="T73" s="147"/>
+      <c r="U73" s="147"/>
+    </row>
+    <row r="74" spans="1:21" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="59" t="s">
         <v>234</v>
       </c>
-      <c r="B72" s="68" t="s">
+      <c r="B74" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C72" s="68"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="69"/>
-      <c r="H72" s="147"/>
-      <c r="I72" s="147"/>
-      <c r="J72" s="147"/>
-      <c r="K72" s="147"/>
-      <c r="L72" s="147"/>
-      <c r="M72" s="147"/>
-      <c r="N72" s="147"/>
-      <c r="O72" s="147"/>
-      <c r="P72" s="147"/>
-      <c r="Q72" s="147"/>
-      <c r="R72" s="147"/>
-      <c r="S72" s="147"/>
-      <c r="T72" s="147"/>
-      <c r="U72" s="147"/>
-    </row>
-    <row r="73" spans="1:21" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A73" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="B73" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="C73" s="108" t="s">
-        <v>278</v>
-      </c>
-      <c r="D73" s="11"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="44"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="95" t="s">
-        <v>77</v>
-      </c>
-      <c r="I73" s="84" t="s">
-        <v>711</v>
-      </c>
-      <c r="J73" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="K73" s="82"/>
-      <c r="L73" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="M73" s="82"/>
-      <c r="N73" s="82"/>
-      <c r="O73" s="82"/>
-      <c r="P73" s="82"/>
-      <c r="Q73" s="82"/>
-      <c r="R73" s="82"/>
-      <c r="S73" s="82"/>
-      <c r="T73" s="82"/>
-      <c r="U73" s="82" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" ht="145.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A74" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="B74" s="106" t="s">
-        <v>266</v>
-      </c>
-      <c r="C74" s="108" t="s">
-        <v>278</v>
-      </c>
-      <c r="D74" s="13"/>
-      <c r="E74" s="45"/>
-      <c r="F74" s="45"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="I74" s="84" t="s">
-        <v>711</v>
-      </c>
-      <c r="J74" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="K74" s="85"/>
-      <c r="L74" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="M74" s="85"/>
-      <c r="N74" s="85"/>
-      <c r="O74" s="85"/>
-      <c r="P74" s="85"/>
-      <c r="Q74" s="85"/>
-      <c r="R74" s="85"/>
-      <c r="S74" s="85"/>
-      <c r="T74" s="85"/>
-      <c r="U74" s="85" t="s">
-        <v>86</v>
-      </c>
+      <c r="C74" s="68"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="147"/>
+      <c r="I74" s="147"/>
+      <c r="J74" s="147"/>
+      <c r="K74" s="147"/>
+      <c r="L74" s="147"/>
+      <c r="M74" s="147"/>
+      <c r="N74" s="147"/>
+      <c r="O74" s="147"/>
+      <c r="P74" s="147"/>
+      <c r="Q74" s="147"/>
+      <c r="R74" s="147"/>
+      <c r="S74" s="147"/>
+      <c r="T74" s="147"/>
+      <c r="U74" s="147"/>
     </row>
     <row r="75" spans="1:21" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A75" s="74" t="s">
-        <v>237</v>
-      </c>
-      <c r="B75" s="86" t="s">
-        <v>267</v>
+        <v>235</v>
+      </c>
+      <c r="B75" s="81" t="s">
+        <v>53</v>
       </c>
       <c r="C75" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="D75" s="87"/>
-      <c r="E75" s="88"/>
-      <c r="F75" s="88"/>
-      <c r="G75" s="89"/>
-      <c r="H75" s="90" t="s">
+      <c r="D75" s="11"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="95" t="s">
         <v>77</v>
       </c>
       <c r="I75" s="84" t="s">
-        <v>711</v>
-      </c>
-      <c r="J75" s="91" t="s">
+        <v>710</v>
+      </c>
+      <c r="J75" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="K75" s="91"/>
-      <c r="L75" s="91" t="s">
+      <c r="K75" s="82"/>
+      <c r="L75" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="M75" s="91"/>
-      <c r="N75" s="91"/>
-      <c r="O75" s="91"/>
-      <c r="P75" s="91"/>
-      <c r="Q75" s="91"/>
-      <c r="R75" s="91"/>
-      <c r="S75" s="91"/>
-      <c r="T75" s="91"/>
-      <c r="U75" s="91" t="s">
+      <c r="M75" s="82"/>
+      <c r="N75" s="82"/>
+      <c r="O75" s="82"/>
+      <c r="P75" s="82"/>
+      <c r="Q75" s="82"/>
+      <c r="R75" s="82"/>
+      <c r="S75" s="82"/>
+      <c r="T75" s="82"/>
+      <c r="U75" s="82" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="62" t="s">
-        <v>238</v>
-      </c>
-      <c r="B76" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="C76" s="70"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="63"/>
-      <c r="F76" s="63"/>
-      <c r="G76" s="64"/>
-      <c r="H76" s="147" t="s">
-        <v>711</v>
-      </c>
-      <c r="I76" s="147"/>
-      <c r="J76" s="147"/>
-      <c r="K76" s="147"/>
-      <c r="L76" s="147"/>
-      <c r="M76" s="147"/>
-      <c r="N76" s="147"/>
-      <c r="O76" s="147"/>
-      <c r="P76" s="147"/>
-      <c r="Q76" s="147"/>
-      <c r="R76" s="147"/>
-      <c r="S76" s="147"/>
-      <c r="T76" s="147"/>
-      <c r="U76" s="147"/>
-    </row>
-    <row r="77" spans="1:21" ht="66" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" ht="145.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A76" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="B76" s="106" t="s">
+        <v>266</v>
+      </c>
+      <c r="C76" s="108" t="s">
+        <v>278</v>
+      </c>
+      <c r="D76" s="13"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="I76" s="84" t="s">
+        <v>710</v>
+      </c>
+      <c r="J76" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="K76" s="85"/>
+      <c r="L76" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="M76" s="85"/>
+      <c r="N76" s="85"/>
+      <c r="O76" s="85"/>
+      <c r="P76" s="85"/>
+      <c r="Q76" s="85"/>
+      <c r="R76" s="85"/>
+      <c r="S76" s="85"/>
+      <c r="T76" s="85"/>
+      <c r="U76" s="85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A77" s="74" t="s">
-        <v>239</v>
-      </c>
-      <c r="B77" s="81" t="s">
-        <v>55</v>
+        <v>237</v>
+      </c>
+      <c r="B77" s="86" t="s">
+        <v>267</v>
       </c>
       <c r="C77" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="95" t="s">
+      <c r="D77" s="87"/>
+      <c r="E77" s="88"/>
+      <c r="F77" s="88"/>
+      <c r="G77" s="89"/>
+      <c r="H77" s="90" t="s">
         <v>77</v>
       </c>
       <c r="I77" s="84" t="s">
-        <v>711</v>
-      </c>
-      <c r="J77" s="82" t="s">
+        <v>710</v>
+      </c>
+      <c r="J77" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="K77" s="82"/>
-      <c r="L77" s="82" t="s">
+      <c r="K77" s="91"/>
+      <c r="L77" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="M77" s="82"/>
-      <c r="N77" s="82"/>
-      <c r="O77" s="82"/>
-      <c r="P77" s="82"/>
-      <c r="Q77" s="82"/>
-      <c r="R77" s="82"/>
-      <c r="S77" s="82"/>
-      <c r="T77" s="82"/>
-      <c r="U77" s="82" t="s">
+      <c r="M77" s="91"/>
+      <c r="N77" s="91"/>
+      <c r="O77" s="91"/>
+      <c r="P77" s="91"/>
+      <c r="Q77" s="91"/>
+      <c r="R77" s="91"/>
+      <c r="S77" s="91"/>
+      <c r="T77" s="91"/>
+      <c r="U77" s="91" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="66" x14ac:dyDescent="0.3">
-      <c r="A78" s="74" t="s">
-        <v>240</v>
-      </c>
-      <c r="B78" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="C78" s="108" t="s">
-        <v>278</v>
-      </c>
-      <c r="D78" s="13"/>
-      <c r="E78" s="45"/>
-      <c r="F78" s="45"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="I78" s="84" t="s">
-        <v>711</v>
-      </c>
-      <c r="J78" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="K78" s="85"/>
-      <c r="L78" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="M78" s="85"/>
-      <c r="N78" s="85"/>
-      <c r="O78" s="85"/>
-      <c r="P78" s="85"/>
-      <c r="Q78" s="85"/>
-      <c r="R78" s="85"/>
-      <c r="S78" s="85"/>
-      <c r="T78" s="85"/>
-      <c r="U78" s="85" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="62" t="s">
+        <v>238</v>
+      </c>
+      <c r="B78" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" s="70"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="63"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="147" t="s">
+        <v>710</v>
+      </c>
+      <c r="I78" s="147"/>
+      <c r="J78" s="147"/>
+      <c r="K78" s="147"/>
+      <c r="L78" s="147"/>
+      <c r="M78" s="147"/>
+      <c r="N78" s="147"/>
+      <c r="O78" s="147"/>
+      <c r="P78" s="147"/>
+      <c r="Q78" s="147"/>
+      <c r="R78" s="147"/>
+      <c r="S78" s="147"/>
+      <c r="T78" s="147"/>
+      <c r="U78" s="147"/>
+    </row>
+    <row r="79" spans="1:21" ht="66" x14ac:dyDescent="0.3">
       <c r="A79" s="74" t="s">
-        <v>241</v>
-      </c>
-      <c r="B79" s="86" t="s">
-        <v>57</v>
+        <v>239</v>
+      </c>
+      <c r="B79" s="81" t="s">
+        <v>55</v>
       </c>
       <c r="C79" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="D79" s="87"/>
-      <c r="E79" s="88"/>
-      <c r="F79" s="88"/>
-      <c r="G79" s="89"/>
-      <c r="H79" s="90" t="s">
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="95" t="s">
         <v>77</v>
       </c>
       <c r="I79" s="84" t="s">
-        <v>711</v>
-      </c>
-      <c r="J79" s="91" t="s">
+        <v>710</v>
+      </c>
+      <c r="J79" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="K79" s="91"/>
-      <c r="L79" s="91" t="s">
+      <c r="K79" s="82"/>
+      <c r="L79" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="M79" s="91"/>
-      <c r="N79" s="91"/>
-      <c r="O79" s="91"/>
-      <c r="P79" s="91"/>
-      <c r="Q79" s="91"/>
-      <c r="R79" s="91"/>
-      <c r="S79" s="91"/>
-      <c r="T79" s="91"/>
-      <c r="U79" s="91" t="s">
+      <c r="M79" s="82"/>
+      <c r="N79" s="82"/>
+      <c r="O79" s="82"/>
+      <c r="P79" s="82"/>
+      <c r="Q79" s="82"/>
+      <c r="R79" s="82"/>
+      <c r="S79" s="82"/>
+      <c r="T79" s="82"/>
+      <c r="U79" s="82" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="62" t="s">
-        <v>242</v>
-      </c>
-      <c r="B80" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="C80" s="70"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="63"/>
-      <c r="F80" s="63"/>
-      <c r="G80" s="64"/>
-      <c r="H80" s="147"/>
-      <c r="I80" s="147"/>
-      <c r="J80" s="147"/>
-      <c r="K80" s="147"/>
-      <c r="L80" s="147"/>
-      <c r="M80" s="147"/>
-      <c r="N80" s="147"/>
-      <c r="O80" s="147"/>
-      <c r="P80" s="147"/>
-      <c r="Q80" s="147"/>
-      <c r="R80" s="147"/>
-      <c r="S80" s="147"/>
-      <c r="T80" s="147"/>
-      <c r="U80" s="147"/>
-    </row>
-    <row r="81" spans="1:21" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" ht="66" x14ac:dyDescent="0.3">
+      <c r="A80" s="74" t="s">
+        <v>240</v>
+      </c>
+      <c r="B80" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" s="108" t="s">
+        <v>278</v>
+      </c>
+      <c r="D80" s="13"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="I80" s="84" t="s">
+        <v>710</v>
+      </c>
+      <c r="J80" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="K80" s="85"/>
+      <c r="L80" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="M80" s="85"/>
+      <c r="N80" s="85"/>
+      <c r="O80" s="85"/>
+      <c r="P80" s="85"/>
+      <c r="Q80" s="85"/>
+      <c r="R80" s="85"/>
+      <c r="S80" s="85"/>
+      <c r="T80" s="85"/>
+      <c r="U80" s="85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A81" s="74" t="s">
-        <v>243</v>
-      </c>
-      <c r="B81" s="81" t="s">
-        <v>59</v>
+        <v>241</v>
+      </c>
+      <c r="B81" s="86" t="s">
+        <v>57</v>
       </c>
       <c r="C81" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="D81" s="11"/>
-      <c r="E81" s="44"/>
-      <c r="F81" s="44"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="95" t="s">
+      <c r="D81" s="87"/>
+      <c r="E81" s="88"/>
+      <c r="F81" s="88"/>
+      <c r="G81" s="89"/>
+      <c r="H81" s="90" t="s">
         <v>77</v>
       </c>
       <c r="I81" s="84" t="s">
-        <v>711</v>
-      </c>
-      <c r="J81" s="82" t="s">
+        <v>710</v>
+      </c>
+      <c r="J81" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="K81" s="82"/>
-      <c r="L81" s="82" t="s">
+      <c r="K81" s="91"/>
+      <c r="L81" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="M81" s="82"/>
-      <c r="N81" s="82"/>
-      <c r="O81" s="82"/>
-      <c r="P81" s="82"/>
-      <c r="Q81" s="82"/>
-      <c r="R81" s="82"/>
-      <c r="S81" s="82"/>
-      <c r="T81" s="82"/>
-      <c r="U81" s="82" t="s">
+      <c r="M81" s="91"/>
+      <c r="N81" s="91"/>
+      <c r="O81" s="91"/>
+      <c r="P81" s="91"/>
+      <c r="Q81" s="91"/>
+      <c r="R81" s="91"/>
+      <c r="S81" s="91"/>
+      <c r="T81" s="91"/>
+      <c r="U81" s="91" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="132" x14ac:dyDescent="0.3">
-      <c r="A82" s="74" t="s">
-        <v>244</v>
-      </c>
-      <c r="B82" s="83" t="s">
-        <v>268</v>
-      </c>
-      <c r="C82" s="108" t="s">
-        <v>278</v>
-      </c>
-      <c r="D82" s="13"/>
-      <c r="E82" s="45"/>
-      <c r="F82" s="45"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="I82" s="84" t="s">
-        <v>711</v>
-      </c>
-      <c r="J82" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="K82" s="85"/>
-      <c r="L82" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="M82" s="85"/>
-      <c r="N82" s="85"/>
-      <c r="O82" s="85"/>
-      <c r="P82" s="85"/>
-      <c r="Q82" s="85"/>
-      <c r="R82" s="85"/>
-      <c r="S82" s="85"/>
-      <c r="T82" s="85"/>
-      <c r="U82" s="85" t="s">
-        <v>86</v>
-      </c>
+    <row r="82" spans="1:21" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="B82" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="C82" s="70"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="64"/>
+      <c r="H82" s="147"/>
+      <c r="I82" s="147"/>
+      <c r="J82" s="147"/>
+      <c r="K82" s="147"/>
+      <c r="L82" s="147"/>
+      <c r="M82" s="147"/>
+      <c r="N82" s="147"/>
+      <c r="O82" s="147"/>
+      <c r="P82" s="147"/>
+      <c r="Q82" s="147"/>
+      <c r="R82" s="147"/>
+      <c r="S82" s="147"/>
+      <c r="T82" s="147"/>
+      <c r="U82" s="147"/>
     </row>
     <row r="83" spans="1:21" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A83" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="B83" s="83" t="s">
-        <v>60</v>
+        <v>243</v>
+      </c>
+      <c r="B83" s="81" t="s">
+        <v>59</v>
       </c>
       <c r="C83" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="D83" s="13"/>
-      <c r="E83" s="45"/>
-      <c r="F83" s="45"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="84" t="s">
+      <c r="D83" s="11"/>
+      <c r="E83" s="44"/>
+      <c r="F83" s="44"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="95" t="s">
         <v>77</v>
       </c>
       <c r="I83" s="84" t="s">
-        <v>711</v>
-      </c>
-      <c r="J83" s="85" t="s">
+        <v>710</v>
+      </c>
+      <c r="J83" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="K83" s="85"/>
-      <c r="L83" s="85" t="s">
+      <c r="K83" s="82"/>
+      <c r="L83" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="M83" s="85"/>
-      <c r="N83" s="85"/>
-      <c r="O83" s="85"/>
-      <c r="P83" s="85"/>
-      <c r="Q83" s="85"/>
-      <c r="R83" s="85"/>
-      <c r="S83" s="85"/>
-      <c r="T83" s="85"/>
-      <c r="U83" s="85" t="s">
+      <c r="M83" s="82"/>
+      <c r="N83" s="82"/>
+      <c r="O83" s="82"/>
+      <c r="P83" s="82"/>
+      <c r="Q83" s="82"/>
+      <c r="R83" s="82"/>
+      <c r="S83" s="82"/>
+      <c r="T83" s="82"/>
+      <c r="U83" s="82" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" ht="132" x14ac:dyDescent="0.3">
       <c r="A84" s="74" t="s">
-        <v>246</v>
-      </c>
-      <c r="B84" s="86" t="s">
-        <v>61</v>
+        <v>244</v>
+      </c>
+      <c r="B84" s="83" t="s">
+        <v>268</v>
       </c>
       <c r="C84" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="D84" s="87"/>
-      <c r="E84" s="88"/>
-      <c r="F84" s="88"/>
-      <c r="G84" s="89"/>
-      <c r="H84" s="90" t="s">
+      <c r="D84" s="13"/>
+      <c r="E84" s="45"/>
+      <c r="F84" s="45"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="84" t="s">
         <v>77</v>
       </c>
       <c r="I84" s="84" t="s">
-        <v>711</v>
-      </c>
-      <c r="J84" s="91" t="s">
+        <v>710</v>
+      </c>
+      <c r="J84" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="K84" s="91"/>
-      <c r="L84" s="91" t="s">
+      <c r="K84" s="85"/>
+      <c r="L84" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="M84" s="91"/>
-      <c r="N84" s="91"/>
-      <c r="O84" s="91"/>
-      <c r="P84" s="91"/>
-      <c r="Q84" s="91"/>
-      <c r="R84" s="91"/>
-      <c r="S84" s="91"/>
-      <c r="T84" s="91"/>
-      <c r="U84" s="91" t="s">
+      <c r="M84" s="85"/>
+      <c r="N84" s="85"/>
+      <c r="O84" s="85"/>
+      <c r="P84" s="85"/>
+      <c r="Q84" s="85"/>
+      <c r="R84" s="85"/>
+      <c r="S84" s="85"/>
+      <c r="T84" s="85"/>
+      <c r="U84" s="85" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="21" x14ac:dyDescent="0.3">
-      <c r="A85" s="57" t="s">
+    <row r="85" spans="1:21" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="74" t="s">
+        <v>245</v>
+      </c>
+      <c r="B85" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="C85" s="108" t="s">
+        <v>278</v>
+      </c>
+      <c r="D85" s="13"/>
+      <c r="E85" s="45"/>
+      <c r="F85" s="45"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="I85" s="84" t="s">
+        <v>710</v>
+      </c>
+      <c r="J85" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="K85" s="85"/>
+      <c r="L85" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="M85" s="85"/>
+      <c r="N85" s="85"/>
+      <c r="O85" s="85"/>
+      <c r="P85" s="85"/>
+      <c r="Q85" s="85"/>
+      <c r="R85" s="85"/>
+      <c r="S85" s="85"/>
+      <c r="T85" s="85"/>
+      <c r="U85" s="85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A86" s="74" t="s">
+        <v>246</v>
+      </c>
+      <c r="B86" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86" s="108" t="s">
+        <v>278</v>
+      </c>
+      <c r="D86" s="87"/>
+      <c r="E86" s="88"/>
+      <c r="F86" s="88"/>
+      <c r="G86" s="89"/>
+      <c r="H86" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="I86" s="84" t="s">
+        <v>710</v>
+      </c>
+      <c r="J86" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="K86" s="91"/>
+      <c r="L86" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="M86" s="91"/>
+      <c r="N86" s="91"/>
+      <c r="O86" s="91"/>
+      <c r="P86" s="91"/>
+      <c r="Q86" s="91"/>
+      <c r="R86" s="91"/>
+      <c r="S86" s="91"/>
+      <c r="T86" s="91"/>
+      <c r="U86" s="91" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" ht="21" x14ac:dyDescent="0.3">
+      <c r="A87" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B85" s="58" t="s">
+      <c r="B87" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="C85" s="58"/>
-      <c r="D85" s="52"/>
-      <c r="E85" s="52"/>
-      <c r="F85" s="52"/>
-      <c r="G85" s="67"/>
-      <c r="H85" s="147"/>
-      <c r="I85" s="147"/>
-      <c r="J85" s="147"/>
-      <c r="K85" s="147"/>
-      <c r="L85" s="147"/>
-      <c r="M85" s="147"/>
-      <c r="N85" s="147"/>
-      <c r="O85" s="147"/>
-      <c r="P85" s="147"/>
-      <c r="Q85" s="147"/>
-      <c r="R85" s="147"/>
-      <c r="S85" s="147"/>
-      <c r="T85" s="147"/>
-      <c r="U85" s="147"/>
-    </row>
-    <row r="86" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="59" t="s">
+      <c r="C87" s="58"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="52"/>
+      <c r="F87" s="52"/>
+      <c r="G87" s="67"/>
+      <c r="H87" s="147"/>
+      <c r="I87" s="147"/>
+      <c r="J87" s="147"/>
+      <c r="K87" s="147"/>
+      <c r="L87" s="147"/>
+      <c r="M87" s="147"/>
+      <c r="N87" s="147"/>
+      <c r="O87" s="147"/>
+      <c r="P87" s="147"/>
+      <c r="Q87" s="147"/>
+      <c r="R87" s="147"/>
+      <c r="S87" s="147"/>
+      <c r="T87" s="147"/>
+      <c r="U87" s="147"/>
+    </row>
+    <row r="88" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="B86" s="68" t="s">
-        <v>465</v>
-      </c>
-      <c r="C86" s="68"/>
-      <c r="D86" s="60"/>
-      <c r="E86" s="60"/>
-      <c r="F86" s="60"/>
-      <c r="G86" s="69"/>
-      <c r="H86" s="147"/>
-      <c r="I86" s="147"/>
-      <c r="J86" s="147"/>
-      <c r="K86" s="147"/>
-      <c r="L86" s="147"/>
-      <c r="M86" s="147"/>
-      <c r="N86" s="147"/>
-      <c r="O86" s="147"/>
-      <c r="P86" s="147"/>
-      <c r="Q86" s="147"/>
-      <c r="R86" s="147"/>
-      <c r="S86" s="147"/>
-      <c r="T86" s="147"/>
-      <c r="U86" s="147"/>
-    </row>
-    <row r="87" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="74" t="s">
-        <v>250</v>
-      </c>
-      <c r="B87" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="C87" s="108" t="s">
-        <v>278</v>
-      </c>
-      <c r="D87" s="11"/>
-      <c r="E87" s="44"/>
-      <c r="F87" s="44"/>
-      <c r="G87" s="107"/>
-      <c r="H87" s="95" t="s">
-        <v>77</v>
-      </c>
-      <c r="I87" s="84" t="s">
-        <v>711</v>
-      </c>
-      <c r="J87" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="K87" s="82"/>
-      <c r="L87" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="M87" s="82"/>
-      <c r="N87" s="82"/>
-      <c r="O87" s="82"/>
-      <c r="P87" s="82"/>
-      <c r="Q87" s="82"/>
-      <c r="R87" s="82"/>
-      <c r="S87" s="82"/>
-      <c r="T87" s="82"/>
-      <c r="U87" s="82" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="62" t="s">
-        <v>249</v>
-      </c>
-      <c r="B88" s="70" t="s">
+      <c r="B88" s="68" t="s">
         <v>464</v>
       </c>
-      <c r="C88" s="70"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="63"/>
-      <c r="G88" s="64"/>
+      <c r="C88" s="68"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="60"/>
+      <c r="G88" s="69"/>
       <c r="H88" s="147"/>
       <c r="I88" s="147"/>
       <c r="J88" s="147"/>
@@ -13847,12 +13861,12 @@
       <c r="T88" s="147"/>
       <c r="U88" s="147"/>
     </row>
-    <row r="89" spans="1:21" ht="132" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A89" s="74" t="s">
         <v>250</v>
       </c>
       <c r="B89" s="81" t="s">
-        <v>269</v>
+        <v>64</v>
       </c>
       <c r="C89" s="108" t="s">
         <v>278</v>
@@ -13865,7 +13879,7 @@
         <v>77</v>
       </c>
       <c r="I89" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J89" s="82" t="s">
         <v>66</v>
@@ -13887,215 +13901,281 @@
       </c>
     </row>
     <row r="90" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="74" t="s">
-        <v>466</v>
-      </c>
-      <c r="B90" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="C90" s="108" t="s">
-        <v>278</v>
-      </c>
-      <c r="D90" s="13"/>
-      <c r="E90" s="45"/>
-      <c r="F90" s="45"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="I90" s="84" t="s">
-        <v>711</v>
-      </c>
-      <c r="J90" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="K90" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="L90" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="M90" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="N90" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="O90" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="P90" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q90" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="R90" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="S90" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="T90" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="U90" s="85" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="111" t="s">
-        <v>467</v>
-      </c>
-      <c r="B91" s="83" t="s">
-        <v>270</v>
+      <c r="A90" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="B90" s="70" t="s">
+        <v>463</v>
+      </c>
+      <c r="C90" s="70"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="63"/>
+      <c r="F90" s="63"/>
+      <c r="G90" s="64"/>
+      <c r="H90" s="147"/>
+      <c r="I90" s="147"/>
+      <c r="J90" s="147"/>
+      <c r="K90" s="147"/>
+      <c r="L90" s="147"/>
+      <c r="M90" s="147"/>
+      <c r="N90" s="147"/>
+      <c r="O90" s="147"/>
+      <c r="P90" s="147"/>
+      <c r="Q90" s="147"/>
+      <c r="R90" s="147"/>
+      <c r="S90" s="147"/>
+      <c r="T90" s="147"/>
+      <c r="U90" s="147"/>
+    </row>
+    <row r="91" spans="1:21" ht="132" x14ac:dyDescent="0.3">
+      <c r="A91" s="74" t="s">
+        <v>250</v>
+      </c>
+      <c r="B91" s="81" t="s">
+        <v>269</v>
       </c>
       <c r="C91" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="D91" s="13"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="45"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="84" t="s">
+      <c r="D91" s="11"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="107"/>
+      <c r="H91" s="95" t="s">
         <v>77</v>
       </c>
       <c r="I91" s="84" t="s">
-        <v>711</v>
-      </c>
-      <c r="J91" s="85" t="s">
+        <v>710</v>
+      </c>
+      <c r="J91" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="K91" s="85" t="s">
+      <c r="K91" s="82"/>
+      <c r="L91" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="L91" s="85" t="s">
+      <c r="M91" s="82"/>
+      <c r="N91" s="82"/>
+      <c r="O91" s="82"/>
+      <c r="P91" s="82"/>
+      <c r="Q91" s="82"/>
+      <c r="R91" s="82"/>
+      <c r="S91" s="82"/>
+      <c r="T91" s="82"/>
+      <c r="U91" s="82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="74" t="s">
+        <v>465</v>
+      </c>
+      <c r="B92" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" s="108" t="s">
+        <v>278</v>
+      </c>
+      <c r="D92" s="13"/>
+      <c r="E92" s="45"/>
+      <c r="F92" s="45"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="I92" s="84" t="s">
+        <v>710</v>
+      </c>
+      <c r="J92" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="M91" s="85" t="s">
+      <c r="K92" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="N91" s="85" t="s">
+      <c r="L92" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="O91" s="85" t="s">
+      <c r="M92" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="P91" s="85" t="s">
+      <c r="N92" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="Q91" s="85" t="s">
+      <c r="O92" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="R91" s="85" t="s">
+      <c r="P92" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="S91" s="85" t="s">
+      <c r="Q92" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="T91" s="85" t="s">
+      <c r="R92" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="U91" s="85" t="s">
+      <c r="S92" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="T92" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="U92" s="85" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B93" s="24" t="s">
+    <row r="93" spans="1:21" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="111" t="s">
+        <v>466</v>
+      </c>
+      <c r="B93" s="83" t="s">
+        <v>270</v>
+      </c>
+      <c r="C93" s="108" t="s">
+        <v>278</v>
+      </c>
+      <c r="D93" s="13"/>
+      <c r="E93" s="45"/>
+      <c r="F93" s="45"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="I93" s="84" t="s">
+        <v>710</v>
+      </c>
+      <c r="J93" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="K93" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="L93" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="M93" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="N93" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="O93" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="P93" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q93" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="R93" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="S93" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="T93" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="U93" s="85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B95" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="21" t="s">
+      <c r="C95" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="G93" s="24" t="s">
+      <c r="G95" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="H93" s="21" t="s">
+      <c r="H95" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B94" s="123"/>
-      <c r="C94" s="124">
-        <f>54-C95-C96</f>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B96" s="123"/>
+      <c r="C96" s="124">
+        <f>54-C97-C98</f>
+        <v>-1</v>
+      </c>
+      <c r="G96" s="24"/>
+      <c r="H96" s="21">
+        <f t="shared" ref="H96:H101" si="0">COUNTIF($H$3:$H$93,G96)</f>
         <v>0</v>
       </c>
-      <c r="G94" s="24"/>
-      <c r="H94" s="21">
-        <f t="shared" ref="H94:H99" si="0">COUNTIF($H$3:$H$91,G94)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B95" s="119" t="s">
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B97" s="119" t="s">
         <v>278</v>
       </c>
-      <c r="C95" s="120">
-        <f>COUNTIF($C$3:$C$91,B95)</f>
-        <v>54</v>
-      </c>
-      <c r="G95" s="24" t="s">
+      <c r="C97" s="120">
+        <f>COUNTIF($C$3:$C$93,B97)</f>
+        <v>55</v>
+      </c>
+      <c r="G97" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="H95" s="21">
+      <c r="H97" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B96" s="121" t="s">
-        <v>472</v>
-      </c>
-      <c r="C96" s="122">
-        <f>COUNTIF($C$3:$C$91,B96)</f>
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B98" s="121" t="s">
+        <v>471</v>
+      </c>
+      <c r="C98" s="122">
+        <f>COUNTIF($C$3:$C$93,B98)</f>
         <v>0</v>
       </c>
-      <c r="G96" s="25" t="s">
+      <c r="G98" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="H96" s="26">
+      <c r="H98" s="26">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G97" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G99" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="H97" s="28">
+      <c r="H99" s="28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G98" s="29" t="s">
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G100" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="H98" s="30">
+      <c r="H100" s="30">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G99" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G101" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="H99" s="32">
+      <c r="H101" s="32">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="7:9" x14ac:dyDescent="0.3"/>
+        <v>2</v>
+      </c>
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:U91" xr:uid="{DD04C26E-DAD0-4354-A3D1-8E83AE02EE28}"/>
-  <mergeCells count="32">
+  <autoFilter ref="A2:U93" xr:uid="{DD04C26E-DAD0-4354-A3D1-8E83AE02EE28}"/>
+  <mergeCells count="33">
     <mergeCell ref="J1:T1"/>
     <mergeCell ref="B3:U3"/>
     <mergeCell ref="B4:U4"/>
@@ -14109,27 +14189,28 @@
     <mergeCell ref="B24:U24"/>
     <mergeCell ref="B25:U25"/>
     <mergeCell ref="H34:U34"/>
-    <mergeCell ref="H39:U39"/>
-    <mergeCell ref="H40:U40"/>
+    <mergeCell ref="H41:U41"/>
     <mergeCell ref="H42:U42"/>
     <mergeCell ref="H44:U44"/>
     <mergeCell ref="H46:U46"/>
-    <mergeCell ref="H49:U49"/>
-    <mergeCell ref="H50:U50"/>
-    <mergeCell ref="H54:U54"/>
-    <mergeCell ref="H58:U58"/>
-    <mergeCell ref="H59:U59"/>
-    <mergeCell ref="H65:U65"/>
-    <mergeCell ref="H68:U68"/>
-    <mergeCell ref="H71:U71"/>
+    <mergeCell ref="H39:U39"/>
+    <mergeCell ref="H48:U48"/>
+    <mergeCell ref="H51:U51"/>
+    <mergeCell ref="H52:U52"/>
+    <mergeCell ref="H56:U56"/>
+    <mergeCell ref="H60:U60"/>
+    <mergeCell ref="H61:U61"/>
+    <mergeCell ref="H67:U67"/>
+    <mergeCell ref="H70:U70"/>
+    <mergeCell ref="H73:U73"/>
+    <mergeCell ref="H90:U90"/>
+    <mergeCell ref="H74:U74"/>
+    <mergeCell ref="H78:U78"/>
+    <mergeCell ref="H82:U82"/>
+    <mergeCell ref="H87:U87"/>
     <mergeCell ref="H88:U88"/>
-    <mergeCell ref="H72:U72"/>
-    <mergeCell ref="H76:U76"/>
-    <mergeCell ref="H80:U80"/>
-    <mergeCell ref="H85:U85"/>
-    <mergeCell ref="H86:U86"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1 C5 C7 C9:C11 C13 C16:C19 C21:C22 C26:C92 C97:C1048576">
+  <conditionalFormatting sqref="C1 C5 C7 C9:C11 C13 C16:C19 C21:C22 C26:C94 C99:C1048576">
     <cfRule type="cellIs" dxfId="687" priority="300" operator="equal">
       <formula>"Included"</formula>
     </cfRule>
@@ -14137,7 +14218,7 @@
       <formula>"Excluded"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C93:C96">
+  <conditionalFormatting sqref="C95:C98">
     <cfRule type="cellIs" dxfId="685" priority="224" operator="equal">
       <formula>"NC+"</formula>
     </cfRule>
@@ -14291,7 +14372,7 @@
       <formula>"nc-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35:I38">
+  <conditionalFormatting sqref="H35:I38 H40:I40">
     <cfRule type="cellIs" dxfId="641" priority="128" operator="equal">
       <formula>"NC+"</formula>
     </cfRule>
@@ -14305,7 +14386,7 @@
       <formula>"OFI"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41:I41">
+  <conditionalFormatting sqref="H43:I43">
     <cfRule type="cellIs" dxfId="637" priority="123" operator="equal">
       <formula>"nc-"</formula>
     </cfRule>
@@ -14319,7 +14400,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43:I43">
+  <conditionalFormatting sqref="H45:I45">
     <cfRule type="cellIs" dxfId="633" priority="119" operator="equal">
       <formula>"nc-"</formula>
     </cfRule>
@@ -14333,7 +14414,7 @@
       <formula>"OFI"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45:I45">
+  <conditionalFormatting sqref="H47:I47">
     <cfRule type="cellIs" dxfId="629" priority="116" operator="equal">
       <formula>"NC+"</formula>
     </cfRule>
@@ -14347,7 +14428,7 @@
       <formula>"OFI"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47:I48">
+  <conditionalFormatting sqref="H49:I50">
     <cfRule type="cellIs" dxfId="625" priority="108" operator="equal">
       <formula>"NC+"</formula>
     </cfRule>
@@ -14361,7 +14442,7 @@
       <formula>"OFI"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51:I51">
+  <conditionalFormatting sqref="H53:I53">
     <cfRule type="cellIs" dxfId="621" priority="104" operator="equal">
       <formula>"NC+"</formula>
     </cfRule>
@@ -14375,7 +14456,7 @@
       <formula>"OFI"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53:I53">
+  <conditionalFormatting sqref="H55:I55">
     <cfRule type="cellIs" dxfId="617" priority="98" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -14389,7 +14470,7 @@
       <formula>"nc-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55:I57">
+  <conditionalFormatting sqref="H57:I59">
     <cfRule type="cellIs" dxfId="613" priority="88" operator="equal">
       <formula>"NC+"</formula>
     </cfRule>
@@ -14403,7 +14484,7 @@
       <formula>"OFI"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60:I64">
+  <conditionalFormatting sqref="H62:I66">
     <cfRule type="cellIs" dxfId="609" priority="66" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -14417,7 +14498,7 @@
       <formula>"nc-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H66:I67">
+  <conditionalFormatting sqref="H68:I69">
     <cfRule type="cellIs" dxfId="605" priority="60" operator="equal">
       <formula>"NC+"</formula>
     </cfRule>
@@ -14431,7 +14512,7 @@
       <formula>"OFI"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69:I70">
+  <conditionalFormatting sqref="H71:I72">
     <cfRule type="cellIs" dxfId="601" priority="52" operator="equal">
       <formula>"NC+"</formula>
     </cfRule>
@@ -14445,7 +14526,7 @@
       <formula>"OFI"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73:I75">
+  <conditionalFormatting sqref="H75:I77">
     <cfRule type="cellIs" dxfId="597" priority="35" operator="equal">
       <formula>"nc-"</formula>
     </cfRule>
@@ -14459,7 +14540,7 @@
       <formula>"OFI"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77:I79">
+  <conditionalFormatting sqref="H79:I81">
     <cfRule type="cellIs" dxfId="593" priority="40" operator="equal">
       <formula>"NC+"</formula>
     </cfRule>
@@ -14473,7 +14554,7 @@
       <formula>"OFI"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H81:I84">
+  <conditionalFormatting sqref="H83:I86">
     <cfRule type="cellIs" dxfId="589" priority="20" operator="equal">
       <formula>"NC+"</formula>
     </cfRule>
@@ -14487,7 +14568,7 @@
       <formula>"OFI"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87:I87">
+  <conditionalFormatting sqref="H89:I89">
     <cfRule type="cellIs" dxfId="585" priority="13" operator="equal">
       <formula>"OFI"</formula>
     </cfRule>
@@ -14501,7 +14582,7 @@
       <formula>"nc-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H89:I91">
+  <conditionalFormatting sqref="H91:I93">
     <cfRule type="cellIs" dxfId="581" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -14515,7 +14596,7 @@
       <formula>"OFI"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H93:I94 H95:H99">
+  <conditionalFormatting sqref="H95:I96 H97:H101">
     <cfRule type="cellIs" dxfId="577" priority="733" operator="equal">
       <formula>"OFI"</formula>
     </cfRule>
@@ -14530,14 +14611,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5 U7 U9 U11 U13 U16 U18:U19 U21:U22 U26:U27 U29 U32:U33 U35:U38 U41 U43 U45 U47:U48 U51 U53 U55:U57 U60:U64 U66:U67 U69:U70 U73:U75 U77:U79 U81:U84 U87 U89:U91" xr:uid="{68916C3E-8869-40F9-8875-AB17BE21D120}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5 U7 U9 U11 U13 U16 U18:U19 U21:U22 U26:U27 U29 U32:U33 U91:U93 U43 U45 U47 U49:U50 U53 U55 U57:U59 U62:U66 U68:U69 U71:U72 U75:U77 U79:U81 U83:U86 U89 U35:U38 U40" xr:uid="{68916C3E-8869-40F9-8875-AB17BE21D120}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C16 C7 C9:C11 C13 C18:C19 C21:C22 C26:C27 C29:C30 C32:C33 C35:C38 C41 C43 C45 C47:C48 C51 C53 C55:C57 C60:C64 C66:C67 C69:C70 C73:C75 C77:C79 C81:C84 C87:C91" xr:uid="{F861FD1D-F19D-406D-82C2-3E1361763390}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C16 C7 C9:C11 C13 C18:C19 C21:C22 C26:C27 C29:C30 C32:C33 C89:C93 C43 C45 C47 C49:C50 C53 C55 C57:C59 C62:C66 C68:C69 C71:C72 C75:C77 C79:C81 C83:C86 C35:C38 C40" xr:uid="{F861FD1D-F19D-406D-82C2-3E1361763390}">
       <formula1>"Included, Excluded"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5 H87 H81:H84 H77:H79 H69:H70 H66:H67 H60:H64 H55:H57 H53 H51 H47:H48 H45 H43 H41 H35:H38 H32:H33 H29:H30 H26:H27 H21:H22 H18:H19 H16 H13 H9:H11 H73:H75 H7 H89:H91" xr:uid="{4400A425-8A1A-4BB9-A7C2-2BA196F6FD2F}">
-      <formula1>$G$94:$G$99</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5 H89 H83:H86 H79:H81 H71:H72 H68:H69 H62:H66 H57:H59 H55 H53 H49:H50 H47 H45 H43 H91:H93 H32:H33 H29:H30 H26:H27 H21:H22 H18:H19 H16 H13 H9:H11 H75:H77 H7 H35:H38 H40" xr:uid="{4400A425-8A1A-4BB9-A7C2-2BA196F6FD2F}">
+      <formula1>$G$96:$G$101</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -14552,25 +14633,25 @@
   </sheetPr>
   <dimension ref="A1:V201"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.77734375" customWidth="1"/>
-    <col min="3" max="3" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="21" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="3.5546875" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="36.5546875" hidden="1"/>
@@ -14579,7 +14660,7 @@
     <row r="1" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="54" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>374</v>
@@ -14597,16 +14678,16 @@
         <v>125</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="I1" s="23" t="s">
         <v>703</v>
       </c>
-      <c r="I1" s="23" t="s">
-        <v>704</v>
-      </c>
       <c r="J1" s="23" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K1" s="160" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="L1" s="161"/>
       <c r="M1" s="161"/>
@@ -14622,13 +14703,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="97.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
       <c r="B2" s="54" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C2" s="110" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D2" s="110"/>
       <c r="E2" s="110" t="s">
@@ -14662,7 +14743,7 @@
         <v>68</v>
       </c>
       <c r="O2" s="128" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P2" s="128" t="s">
         <v>165</v>
@@ -14671,24 +14752,24 @@
         <v>166</v>
       </c>
       <c r="R2" s="128" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="S2" s="128" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="T2" s="128" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="U2" s="128" t="s">
         <v>75</v>
       </c>
       <c r="V2" s="139" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="117" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B3" s="112" t="s">
         <v>373</v>
@@ -14716,7 +14797,7 @@
     </row>
     <row r="4" spans="1:22" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="117" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B4" s="116" t="s">
         <v>375</v>
@@ -14744,13 +14825,13 @@
     </row>
     <row r="5" spans="1:22" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A5" s="125" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B5" s="129" t="s">
         <v>280</v>
       </c>
       <c r="C5" s="129" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D5" s="133" t="s">
         <v>278</v>
@@ -14763,10 +14844,10 @@
         <v>160</v>
       </c>
       <c r="J5" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K5" s="131" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L5" s="130"/>
       <c r="M5" s="130"/>
@@ -14784,7 +14865,7 @@
     </row>
     <row r="6" spans="1:22" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A6" s="117" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B6" s="116" t="s">
         <v>376</v>
@@ -14812,13 +14893,13 @@
     </row>
     <row r="7" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A7" s="125" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B7" s="129" t="s">
         <v>281</v>
       </c>
       <c r="C7" s="129" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D7" s="133" t="s">
         <v>278</v>
@@ -14831,16 +14912,16 @@
         <v>77</v>
       </c>
       <c r="J7" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K7" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L7" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M7" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N7" s="130"/>
       <c r="O7" s="130"/>
@@ -14856,7 +14937,7 @@
     </row>
     <row r="8" spans="1:22" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A8" s="117" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B8" s="116" t="s">
         <v>377</v>
@@ -14884,13 +14965,13 @@
     </row>
     <row r="9" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="125" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B9" s="129" t="s">
         <v>282</v>
       </c>
       <c r="C9" s="129" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D9" s="133" t="s">
         <v>278</v>
@@ -14903,16 +14984,16 @@
         <v>78</v>
       </c>
       <c r="J9" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K9" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L9" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M9" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N9" s="130"/>
       <c r="O9" s="130"/>
@@ -14928,7 +15009,7 @@
     </row>
     <row r="10" spans="1:22" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A10" s="117" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B10" s="116" t="s">
         <v>378</v>
@@ -14956,13 +15037,13 @@
     </row>
     <row r="11" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A11" s="125" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B11" s="129" t="s">
         <v>283</v>
       </c>
       <c r="C11" s="129" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D11" s="133" t="s">
         <v>278</v>
@@ -14975,10 +15056,10 @@
         <v>82</v>
       </c>
       <c r="J11" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K11" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L11" s="130"/>
       <c r="M11" s="130"/>
@@ -14996,7 +15077,7 @@
     </row>
     <row r="12" spans="1:22" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A12" s="117" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B12" s="116" t="s">
         <v>379</v>
@@ -15024,13 +15105,13 @@
     </row>
     <row r="13" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="125" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B13" s="129" t="s">
         <v>284</v>
       </c>
       <c r="C13" s="129" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D13" s="133" t="s">
         <v>278</v>
@@ -15043,19 +15124,19 @@
         <v>81</v>
       </c>
       <c r="J13" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K13" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L13" s="130"/>
       <c r="M13" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N13" s="130"/>
       <c r="O13" s="130"/>
       <c r="P13" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Q13" s="130"/>
       <c r="R13" s="130"/>
@@ -15068,7 +15149,7 @@
     </row>
     <row r="14" spans="1:22" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A14" s="117" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B14" s="116" t="s">
         <v>380</v>
@@ -15096,13 +15177,13 @@
     </row>
     <row r="15" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A15" s="125" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B15" s="129" t="s">
         <v>285</v>
       </c>
       <c r="C15" s="129" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D15" s="133" t="s">
         <v>278</v>
@@ -15115,31 +15196,31 @@
         <v>160</v>
       </c>
       <c r="J15" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K15" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L15" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M15" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N15" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O15" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P15" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Q15" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="R15" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="S15" s="130"/>
       <c r="T15" s="130"/>
@@ -15150,7 +15231,7 @@
     </row>
     <row r="16" spans="1:22" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A16" s="117" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B16" s="116" t="s">
         <v>381</v>
@@ -15178,13 +15259,13 @@
     </row>
     <row r="17" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="125" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B17" s="129" t="s">
         <v>286</v>
       </c>
       <c r="C17" s="129" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D17" s="133" t="s">
         <v>278</v>
@@ -15197,20 +15278,20 @@
         <v>160</v>
       </c>
       <c r="J17" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K17" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L17" s="130"/>
       <c r="M17" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N17" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O17" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P17" s="130"/>
       <c r="Q17" s="130"/>
@@ -15224,7 +15305,7 @@
     </row>
     <row r="18" spans="1:22" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A18" s="117" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B18" s="116" t="s">
         <v>382</v>
@@ -15252,13 +15333,13 @@
     </row>
     <row r="19" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="125" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B19" s="129" t="s">
         <v>287</v>
       </c>
       <c r="C19" s="129" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D19" s="133" t="s">
         <v>278</v>
@@ -15271,16 +15352,16 @@
         <v>160</v>
       </c>
       <c r="J19" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K19" s="130"/>
       <c r="L19" s="130"/>
       <c r="M19" s="130"/>
       <c r="N19" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O19" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P19" s="130"/>
       <c r="Q19" s="130"/>
@@ -15294,7 +15375,7 @@
     </row>
     <row r="20" spans="1:22" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A20" s="117" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B20" s="116" t="s">
         <v>383</v>
@@ -15322,13 +15403,13 @@
     </row>
     <row r="21" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A21" s="125" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B21" s="129" t="s">
         <v>288</v>
       </c>
       <c r="C21" s="129" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D21" s="133" t="s">
         <v>278</v>
@@ -15341,18 +15422,18 @@
         <v>160</v>
       </c>
       <c r="J21" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K21" s="130"/>
       <c r="L21" s="130"/>
       <c r="M21" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N21" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O21" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P21" s="130"/>
       <c r="Q21" s="130"/>
@@ -15366,10 +15447,10 @@
     </row>
     <row r="22" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A22" s="117" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B22" s="116" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C22" s="157"/>
       <c r="D22" s="158"/>
@@ -15394,13 +15475,13 @@
     </row>
     <row r="23" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="125" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B23" s="129" t="s">
         <v>289</v>
       </c>
       <c r="C23" s="129" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D23" s="133" t="s">
         <v>278</v>
@@ -15413,15 +15494,15 @@
         <v>160</v>
       </c>
       <c r="J23" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K23" s="130"/>
       <c r="L23" s="130"/>
       <c r="M23" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N23" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O23" s="130"/>
       <c r="P23" s="130"/>
@@ -15436,7 +15517,7 @@
     </row>
     <row r="24" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A24" s="117" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B24" s="116" t="s">
         <v>384</v>
@@ -15464,13 +15545,13 @@
     </row>
     <row r="25" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A25" s="125" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B25" s="129" t="s">
         <v>290</v>
       </c>
       <c r="C25" s="129" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D25" s="133" t="s">
         <v>278</v>
@@ -15483,20 +15564,20 @@
         <v>160</v>
       </c>
       <c r="J25" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K25" s="130"/>
       <c r="L25" s="130"/>
       <c r="M25" s="130"/>
       <c r="N25" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O25" s="130"/>
       <c r="P25" s="130"/>
       <c r="Q25" s="130"/>
       <c r="R25" s="130"/>
       <c r="S25" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="T25" s="130"/>
       <c r="U25" s="130"/>
@@ -15506,7 +15587,7 @@
     </row>
     <row r="26" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A26" s="117" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B26" s="116" t="s">
         <v>385</v>
@@ -15534,13 +15615,13 @@
     </row>
     <row r="27" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A27" s="125" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B27" s="129" t="s">
         <v>291</v>
       </c>
       <c r="C27" s="129" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D27" s="133" t="s">
         <v>278</v>
@@ -15553,15 +15634,15 @@
         <v>160</v>
       </c>
       <c r="J27" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K27" s="130"/>
       <c r="L27" s="130"/>
       <c r="M27" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N27" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O27" s="130"/>
       <c r="P27" s="130"/>
@@ -15576,7 +15657,7 @@
     </row>
     <row r="28" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A28" s="117" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B28" s="116" t="s">
         <v>386</v>
@@ -15604,13 +15685,13 @@
     </row>
     <row r="29" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A29" s="125" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B29" s="129" t="s">
         <v>292</v>
       </c>
       <c r="C29" s="129" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D29" s="133" t="s">
         <v>278</v>
@@ -15623,15 +15704,15 @@
         <v>160</v>
       </c>
       <c r="J29" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K29" s="130"/>
       <c r="L29" s="130"/>
       <c r="M29" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N29" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O29" s="130"/>
       <c r="P29" s="130"/>
@@ -15646,7 +15727,7 @@
     </row>
     <row r="30" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A30" s="117" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B30" s="116" t="s">
         <v>387</v>
@@ -15674,13 +15755,13 @@
     </row>
     <row r="31" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A31" s="125" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B31" s="129" t="s">
         <v>293</v>
       </c>
       <c r="C31" s="129" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D31" s="133" t="s">
         <v>278</v>
@@ -15693,26 +15774,26 @@
         <v>160</v>
       </c>
       <c r="J31" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K31" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L31" s="130"/>
       <c r="M31" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N31" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O31" s="130"/>
       <c r="P31" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Q31" s="130"/>
       <c r="R31" s="130"/>
       <c r="S31" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="T31" s="130"/>
       <c r="U31" s="130"/>
@@ -15722,7 +15803,7 @@
     </row>
     <row r="32" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A32" s="117" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B32" s="116" t="s">
         <v>388</v>
@@ -15750,13 +15831,13 @@
     </row>
     <row r="33" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A33" s="125" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B33" s="129" t="s">
         <v>294</v>
       </c>
       <c r="C33" s="129" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D33" s="133" t="s">
         <v>278</v>
@@ -15769,15 +15850,15 @@
         <v>160</v>
       </c>
       <c r="J33" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K33" s="130"/>
       <c r="L33" s="130"/>
       <c r="M33" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N33" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O33" s="130"/>
       <c r="P33" s="130"/>
@@ -15792,7 +15873,7 @@
     </row>
     <row r="34" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A34" s="117" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B34" s="116" t="s">
         <v>389</v>
@@ -15820,13 +15901,13 @@
     </row>
     <row r="35" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="125" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B35" s="129" t="s">
         <v>295</v>
       </c>
       <c r="C35" s="129" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D35" s="133" t="s">
         <v>278</v>
@@ -15839,17 +15920,17 @@
         <v>160</v>
       </c>
       <c r="J35" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K35" s="130"/>
       <c r="L35" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M35" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N35" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O35" s="130"/>
       <c r="P35" s="130"/>
@@ -15864,7 +15945,7 @@
     </row>
     <row r="36" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A36" s="117" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B36" s="116" t="s">
         <v>390</v>
@@ -15892,13 +15973,13 @@
     </row>
     <row r="37" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A37" s="125" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B37" s="129" t="s">
         <v>296</v>
       </c>
       <c r="C37" s="129" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D37" s="133" t="s">
         <v>278</v>
@@ -15911,13 +15992,13 @@
         <v>160</v>
       </c>
       <c r="J37" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K37" s="130"/>
       <c r="L37" s="130"/>
       <c r="M37" s="130"/>
       <c r="N37" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O37" s="130"/>
       <c r="P37" s="130"/>
@@ -15932,7 +16013,7 @@
     </row>
     <row r="38" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A38" s="117" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B38" s="116" t="s">
         <v>391</v>
@@ -15960,13 +16041,13 @@
     </row>
     <row r="39" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A39" s="125" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B39" s="129" t="s">
         <v>297</v>
       </c>
       <c r="C39" s="129" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D39" s="133" t="s">
         <v>278</v>
@@ -15979,15 +16060,15 @@
         <v>160</v>
       </c>
       <c r="J39" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K39" s="130"/>
       <c r="L39" s="130"/>
       <c r="M39" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N39" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O39" s="130"/>
       <c r="P39" s="130"/>
@@ -16002,7 +16083,7 @@
     </row>
     <row r="40" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A40" s="117" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B40" s="116" t="s">
         <v>392</v>
@@ -16030,13 +16111,13 @@
     </row>
     <row r="41" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A41" s="125" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B41" s="129" t="s">
         <v>298</v>
       </c>
       <c r="C41" s="129" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D41" s="133" t="s">
         <v>278</v>
@@ -16049,7 +16130,7 @@
         <v>160</v>
       </c>
       <c r="J41" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K41" s="130"/>
       <c r="L41" s="130"/>
@@ -16057,11 +16138,11 @@
       <c r="N41" s="130"/>
       <c r="O41" s="130"/>
       <c r="P41" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Q41" s="130"/>
       <c r="R41" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="S41" s="130"/>
       <c r="T41" s="130"/>
@@ -16072,10 +16153,10 @@
     </row>
     <row r="42" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="117" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B42" s="116" t="s">
-        <v>393</v>
+        <v>720</v>
       </c>
       <c r="C42" s="157"/>
       <c r="D42" s="158"/>
@@ -16100,13 +16181,13 @@
     </row>
     <row r="43" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A43" s="125" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B43" s="129" t="s">
         <v>299</v>
       </c>
       <c r="C43" s="129" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D43" s="133" t="s">
         <v>278</v>
@@ -16119,7 +16200,7 @@
         <v>160</v>
       </c>
       <c r="J43" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K43" s="130"/>
       <c r="L43" s="130"/>
@@ -16127,11 +16208,11 @@
       <c r="N43" s="130"/>
       <c r="O43" s="130"/>
       <c r="P43" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Q43" s="130"/>
       <c r="R43" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="S43" s="130"/>
       <c r="T43" s="130"/>
@@ -16142,10 +16223,10 @@
     </row>
     <row r="44" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A44" s="117" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B44" s="116" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C44" s="157"/>
       <c r="D44" s="158"/>
@@ -16170,13 +16251,13 @@
     </row>
     <row r="45" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A45" s="125" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B45" s="129" t="s">
         <v>300</v>
       </c>
       <c r="C45" s="129" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D45" s="133" t="s">
         <v>278</v>
@@ -16189,7 +16270,7 @@
         <v>160</v>
       </c>
       <c r="J45" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K45" s="130"/>
       <c r="L45" s="130"/>
@@ -16197,11 +16278,11 @@
       <c r="N45" s="130"/>
       <c r="O45" s="130"/>
       <c r="P45" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Q45" s="130"/>
       <c r="R45" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="S45" s="130"/>
       <c r="T45" s="130"/>
@@ -16212,10 +16293,10 @@
     </row>
     <row r="46" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="117" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B46" s="116" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C46" s="157"/>
       <c r="D46" s="158"/>
@@ -16240,13 +16321,13 @@
     </row>
     <row r="47" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A47" s="125" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B47" s="129" t="s">
         <v>301</v>
       </c>
       <c r="C47" s="129" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D47" s="133" t="s">
         <v>278</v>
@@ -16259,7 +16340,7 @@
         <v>160</v>
       </c>
       <c r="J47" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K47" s="130"/>
       <c r="L47" s="130"/>
@@ -16267,11 +16348,11 @@
       <c r="N47" s="130"/>
       <c r="O47" s="130"/>
       <c r="P47" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Q47" s="130"/>
       <c r="R47" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="S47" s="130"/>
       <c r="T47" s="130"/>
@@ -16282,10 +16363,10 @@
     </row>
     <row r="48" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="117" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B48" s="116" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C48" s="157"/>
       <c r="D48" s="158"/>
@@ -16310,13 +16391,13 @@
     </row>
     <row r="49" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A49" s="125" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B49" s="129" t="s">
         <v>302</v>
       </c>
       <c r="C49" s="129" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D49" s="133" t="s">
         <v>278</v>
@@ -16329,19 +16410,19 @@
         <v>160</v>
       </c>
       <c r="J49" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K49" s="130"/>
       <c r="L49" s="130"/>
       <c r="M49" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N49" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O49" s="130"/>
       <c r="P49" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Q49" s="130"/>
       <c r="R49" s="130"/>
@@ -16354,10 +16435,10 @@
     </row>
     <row r="50" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="117" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B50" s="116" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C50" s="157"/>
       <c r="D50" s="158"/>
@@ -16382,13 +16463,13 @@
     </row>
     <row r="51" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A51" s="125" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B51" s="129" t="s">
         <v>303</v>
       </c>
       <c r="C51" s="129" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D51" s="133" t="s">
         <v>278</v>
@@ -16401,15 +16482,15 @@
         <v>160</v>
       </c>
       <c r="J51" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K51" s="130"/>
       <c r="L51" s="130"/>
       <c r="M51" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N51" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O51" s="130"/>
       <c r="P51" s="130"/>
@@ -16424,10 +16505,10 @@
     </row>
     <row r="52" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="117" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B52" s="116" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C52" s="157"/>
       <c r="D52" s="158"/>
@@ -16452,13 +16533,13 @@
     </row>
     <row r="53" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A53" s="125" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B53" s="129" t="s">
         <v>304</v>
       </c>
       <c r="C53" s="129" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D53" s="133" t="s">
         <v>278</v>
@@ -16471,15 +16552,15 @@
         <v>160</v>
       </c>
       <c r="J53" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K53" s="130"/>
       <c r="L53" s="130"/>
       <c r="M53" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N53" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O53" s="130"/>
       <c r="P53" s="130"/>
@@ -16494,10 +16575,10 @@
     </row>
     <row r="54" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="117" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B54" s="116" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C54" s="157"/>
       <c r="D54" s="158"/>
@@ -16522,13 +16603,13 @@
     </row>
     <row r="55" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A55" s="125" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B55" s="129" t="s">
         <v>305</v>
       </c>
       <c r="C55" s="129" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D55" s="133" t="s">
         <v>278</v>
@@ -16541,17 +16622,17 @@
         <v>160</v>
       </c>
       <c r="J55" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K55" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L55" s="130"/>
       <c r="M55" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N55" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O55" s="130"/>
       <c r="P55" s="130"/>
@@ -16566,10 +16647,10 @@
     </row>
     <row r="56" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="117" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B56" s="116" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C56" s="157"/>
       <c r="D56" s="158"/>
@@ -16594,13 +16675,13 @@
     </row>
     <row r="57" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A57" s="125" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B57" s="129" t="s">
         <v>306</v>
       </c>
       <c r="C57" s="129" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D57" s="133" t="s">
         <v>278</v>
@@ -16613,17 +16694,17 @@
         <v>160</v>
       </c>
       <c r="J57" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K57" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L57" s="130"/>
       <c r="M57" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N57" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O57" s="130"/>
       <c r="P57" s="130"/>
@@ -16638,10 +16719,10 @@
     </row>
     <row r="58" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="117" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B58" s="116" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C58" s="157"/>
       <c r="D58" s="158"/>
@@ -16666,13 +16747,13 @@
     </row>
     <row r="59" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A59" s="125" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B59" s="129" t="s">
         <v>307</v>
       </c>
       <c r="C59" s="129" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D59" s="133" t="s">
         <v>278</v>
@@ -16685,15 +16766,15 @@
         <v>160</v>
       </c>
       <c r="J59" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K59" s="130"/>
       <c r="L59" s="130"/>
       <c r="M59" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N59" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O59" s="130"/>
       <c r="P59" s="130"/>
@@ -16708,10 +16789,10 @@
     </row>
     <row r="60" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="117" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B60" s="116" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C60" s="157"/>
       <c r="D60" s="158"/>
@@ -16736,13 +16817,13 @@
     </row>
     <row r="61" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A61" s="125" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B61" s="129" t="s">
         <v>308</v>
       </c>
       <c r="C61" s="129" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D61" s="133" t="s">
         <v>278</v>
@@ -16755,17 +16836,17 @@
         <v>160</v>
       </c>
       <c r="J61" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K61" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L61" s="130"/>
       <c r="M61" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N61" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O61" s="130"/>
       <c r="P61" s="130"/>
@@ -16780,10 +16861,10 @@
     </row>
     <row r="62" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="117" t="s">
+        <v>551</v>
+      </c>
+      <c r="B62" s="116" t="s">
         <v>552</v>
-      </c>
-      <c r="B62" s="116" t="s">
-        <v>553</v>
       </c>
       <c r="C62" s="157"/>
       <c r="D62" s="158"/>
@@ -16808,13 +16889,13 @@
     </row>
     <row r="63" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A63" s="125" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B63" s="129" t="s">
         <v>309</v>
       </c>
       <c r="C63" s="129" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D63" s="133" t="s">
         <v>278</v>
@@ -16827,17 +16908,17 @@
         <v>160</v>
       </c>
       <c r="J63" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K63" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L63" s="130"/>
       <c r="M63" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N63" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O63" s="130"/>
       <c r="P63" s="130"/>
@@ -16852,10 +16933,10 @@
     </row>
     <row r="64" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A64" s="117" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B64" s="116" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C64" s="157"/>
       <c r="D64" s="158"/>
@@ -16880,13 +16961,13 @@
     </row>
     <row r="65" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A65" s="125" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B65" s="129" t="s">
         <v>310</v>
       </c>
       <c r="C65" s="129" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D65" s="133" t="s">
         <v>278</v>
@@ -16899,7 +16980,7 @@
         <v>160</v>
       </c>
       <c r="J65" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K65" s="130"/>
       <c r="L65" s="130"/>
@@ -16907,7 +16988,7 @@
       <c r="N65" s="130"/>
       <c r="O65" s="130"/>
       <c r="P65" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Q65" s="130"/>
       <c r="R65" s="130"/>
@@ -16920,10 +17001,10 @@
     </row>
     <row r="66" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="117" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B66" s="116" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C66" s="157"/>
       <c r="D66" s="158"/>
@@ -16948,13 +17029,13 @@
     </row>
     <row r="67" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A67" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B67" s="129" t="s">
         <v>311</v>
       </c>
       <c r="C67" s="129" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D67" s="133" t="s">
         <v>278</v>
@@ -16967,7 +17048,7 @@
         <v>160</v>
       </c>
       <c r="J67" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K67" s="130"/>
       <c r="L67" s="130"/>
@@ -16975,7 +17056,7 @@
       <c r="N67" s="130"/>
       <c r="O67" s="130"/>
       <c r="P67" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Q67" s="130"/>
       <c r="R67" s="130"/>
@@ -16988,10 +17069,10 @@
     </row>
     <row r="68" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="117" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B68" s="116" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C68" s="157"/>
       <c r="D68" s="158"/>
@@ -17016,13 +17097,13 @@
     </row>
     <row r="69" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A69" s="125" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B69" s="129" t="s">
         <v>312</v>
       </c>
       <c r="C69" s="129" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D69" s="133" t="s">
         <v>278</v>
@@ -17035,15 +17116,15 @@
         <v>160</v>
       </c>
       <c r="J69" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K69" s="130"/>
       <c r="L69" s="130"/>
       <c r="M69" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N69" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O69" s="130"/>
       <c r="P69" s="130"/>
@@ -17058,10 +17139,10 @@
     </row>
     <row r="70" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="117" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B70" s="116" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C70" s="157"/>
       <c r="D70" s="158"/>
@@ -17086,13 +17167,13 @@
     </row>
     <row r="71" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A71" s="125" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B71" s="129" t="s">
         <v>313</v>
       </c>
       <c r="C71" s="129" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D71" s="133" t="s">
         <v>278</v>
@@ -17105,7 +17186,7 @@
         <v>160</v>
       </c>
       <c r="J71" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K71" s="130"/>
       <c r="L71" s="130"/>
@@ -17113,7 +17194,7 @@
       <c r="N71" s="130"/>
       <c r="O71" s="130"/>
       <c r="P71" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Q71" s="130"/>
       <c r="R71" s="130"/>
@@ -17126,10 +17207,10 @@
     </row>
     <row r="72" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="117" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B72" s="116" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C72" s="157"/>
       <c r="D72" s="158"/>
@@ -17154,13 +17235,13 @@
     </row>
     <row r="73" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A73" s="125" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B73" s="129" t="s">
         <v>314</v>
       </c>
       <c r="C73" s="129" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D73" s="133" t="s">
         <v>278</v>
@@ -17173,14 +17254,14 @@
         <v>160</v>
       </c>
       <c r="J73" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K73" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L73" s="130"/>
       <c r="M73" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N73" s="130"/>
       <c r="O73" s="130"/>
@@ -17196,10 +17277,10 @@
     </row>
     <row r="74" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="117" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B74" s="116" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C74" s="157"/>
       <c r="D74" s="158"/>
@@ -17224,13 +17305,13 @@
     </row>
     <row r="75" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A75" s="125" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B75" s="129" t="s">
         <v>315</v>
       </c>
       <c r="C75" s="129" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D75" s="133" t="s">
         <v>278</v>
@@ -17243,19 +17324,19 @@
         <v>160</v>
       </c>
       <c r="J75" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K75" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L75" s="130"/>
       <c r="M75" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N75" s="130"/>
       <c r="O75" s="130"/>
       <c r="P75" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Q75" s="130"/>
       <c r="R75" s="130"/>
@@ -17268,10 +17349,10 @@
     </row>
     <row r="76" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="117" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B76" s="116" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C76" s="157"/>
       <c r="D76" s="158"/>
@@ -17296,13 +17377,13 @@
     </row>
     <row r="77" spans="1:22" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A77" s="125" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B77" s="129" t="s">
         <v>316</v>
       </c>
       <c r="C77" s="129" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D77" s="133" t="s">
         <v>278</v>
@@ -17312,41 +17393,41 @@
       <c r="G77" s="126"/>
       <c r="H77" s="126"/>
       <c r="I77" s="21" t="s">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="J77" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K77" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L77" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M77" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N77" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O77" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P77" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Q77" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="R77" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="S77" s="130"/>
       <c r="T77" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="U77" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="V77" s="132" t="s">
         <v>86</v>
@@ -17354,10 +17435,10 @@
     </row>
     <row r="78" spans="1:22" ht="21" x14ac:dyDescent="0.3">
       <c r="A78" s="117" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B78" s="112" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C78" s="157"/>
       <c r="D78" s="158"/>
@@ -17382,10 +17463,10 @@
     </row>
     <row r="79" spans="1:22" ht="24" x14ac:dyDescent="0.3">
       <c r="A79" s="117" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B79" s="116" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C79" s="157"/>
       <c r="D79" s="158"/>
@@ -17410,13 +17491,13 @@
     </row>
     <row r="80" spans="1:22" ht="66" x14ac:dyDescent="0.3">
       <c r="A80" s="125" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B80" s="129" t="s">
         <v>317</v>
       </c>
       <c r="C80" s="129" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D80" s="133" t="s">
         <v>278</v>
@@ -17429,11 +17510,11 @@
         <v>160</v>
       </c>
       <c r="J80" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K80" s="130"/>
       <c r="L80" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M80" s="130"/>
       <c r="N80" s="130"/>
@@ -17450,10 +17531,10 @@
     </row>
     <row r="81" spans="1:22" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A81" s="117" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B81" s="116" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C81" s="157"/>
       <c r="D81" s="158"/>
@@ -17478,13 +17559,13 @@
     </row>
     <row r="82" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A82" s="125" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B82" s="129" t="s">
         <v>318</v>
       </c>
       <c r="C82" s="129" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D82" s="133" t="s">
         <v>278</v>
@@ -17497,11 +17578,11 @@
         <v>160</v>
       </c>
       <c r="J82" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K82" s="130"/>
       <c r="L82" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M82" s="130"/>
       <c r="N82" s="130"/>
@@ -17518,10 +17599,10 @@
     </row>
     <row r="83" spans="1:22" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A83" s="117" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B83" s="116" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C83" s="157"/>
       <c r="D83" s="158"/>
@@ -17546,13 +17627,13 @@
     </row>
     <row r="84" spans="1:22" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A84" s="125" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B84" s="129" t="s">
         <v>319</v>
       </c>
       <c r="C84" s="129" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D84" s="133" t="s">
         <v>278</v>
@@ -17565,16 +17646,16 @@
         <v>160</v>
       </c>
       <c r="J84" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K84" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L84" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M84" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N84" s="130"/>
       <c r="O84" s="130"/>
@@ -17590,10 +17671,10 @@
     </row>
     <row r="85" spans="1:22" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A85" s="117" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B85" s="116" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C85" s="157"/>
       <c r="D85" s="158"/>
@@ -17618,13 +17699,13 @@
     </row>
     <row r="86" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A86" s="125" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B86" s="129" t="s">
         <v>320</v>
       </c>
       <c r="C86" s="129" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D86" s="133" t="s">
         <v>278</v>
@@ -17637,11 +17718,11 @@
         <v>160</v>
       </c>
       <c r="J86" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K86" s="130"/>
       <c r="L86" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M86" s="130"/>
       <c r="N86" s="130"/>
@@ -17658,10 +17739,10 @@
     </row>
     <row r="87" spans="1:22" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A87" s="117" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B87" s="116" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C87" s="157"/>
       <c r="D87" s="158"/>
@@ -17686,13 +17767,13 @@
     </row>
     <row r="88" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A88" s="125" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B88" s="129" t="s">
         <v>321</v>
       </c>
       <c r="C88" s="129" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D88" s="133" t="s">
         <v>278</v>
@@ -17705,11 +17786,11 @@
         <v>160</v>
       </c>
       <c r="J88" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K88" s="130"/>
       <c r="L88" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M88" s="130"/>
       <c r="N88" s="130"/>
@@ -17726,10 +17807,10 @@
     </row>
     <row r="89" spans="1:22" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A89" s="117" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B89" s="116" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C89" s="157"/>
       <c r="D89" s="158"/>
@@ -17754,13 +17835,13 @@
     </row>
     <row r="90" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A90" s="125" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B90" s="129" t="s">
         <v>322</v>
       </c>
       <c r="C90" s="129" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D90" s="133" t="s">
         <v>278</v>
@@ -17773,23 +17854,23 @@
         <v>160</v>
       </c>
       <c r="J90" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K90" s="130"/>
       <c r="L90" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M90" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N90" s="130"/>
       <c r="O90" s="130"/>
       <c r="P90" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Q90" s="130"/>
       <c r="R90" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="S90" s="130"/>
       <c r="T90" s="130"/>
@@ -17800,10 +17881,10 @@
     </row>
     <row r="91" spans="1:22" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A91" s="117" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B91" s="116" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C91" s="157"/>
       <c r="D91" s="158"/>
@@ -17828,13 +17909,13 @@
     </row>
     <row r="92" spans="1:22" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A92" s="125" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B92" s="129" t="s">
         <v>323</v>
       </c>
       <c r="C92" s="129" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D92" s="133" t="s">
         <v>278</v>
@@ -17847,11 +17928,11 @@
         <v>160</v>
       </c>
       <c r="J92" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K92" s="130"/>
       <c r="L92" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M92" s="130"/>
       <c r="N92" s="130"/>
@@ -17868,10 +17949,10 @@
     </row>
     <row r="93" spans="1:22" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A93" s="117" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B93" s="116" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C93" s="157"/>
       <c r="D93" s="158"/>
@@ -17896,13 +17977,13 @@
     </row>
     <row r="94" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A94" s="125" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B94" s="129" t="s">
         <v>324</v>
       </c>
       <c r="C94" s="129" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D94" s="133" t="s">
         <v>278</v>
@@ -17915,15 +17996,15 @@
         <v>160</v>
       </c>
       <c r="J94" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K94" s="130"/>
       <c r="L94" s="130"/>
       <c r="M94" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N94" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O94" s="130"/>
       <c r="P94" s="130"/>
@@ -17938,10 +18019,10 @@
     </row>
     <row r="95" spans="1:22" ht="21" x14ac:dyDescent="0.3">
       <c r="A95" s="117" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B95" s="112" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C95" s="157"/>
       <c r="D95" s="158"/>
@@ -17966,10 +18047,10 @@
     </row>
     <row r="96" spans="1:22" ht="24" x14ac:dyDescent="0.3">
       <c r="A96" s="117" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B96" s="116" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C96" s="157"/>
       <c r="D96" s="158"/>
@@ -17994,13 +18075,13 @@
     </row>
     <row r="97" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A97" s="125" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B97" s="129" t="s">
         <v>325</v>
       </c>
       <c r="C97" s="129" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D97" s="133" t="s">
         <v>278</v>
@@ -18013,7 +18094,7 @@
         <v>160</v>
       </c>
       <c r="J97" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K97" s="130"/>
       <c r="L97" s="130"/>
@@ -18022,7 +18103,7 @@
       <c r="O97" s="130"/>
       <c r="P97" s="130"/>
       <c r="Q97" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="R97" s="130"/>
       <c r="S97" s="130"/>
@@ -18034,10 +18115,10 @@
     </row>
     <row r="98" spans="1:22" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A98" s="117" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B98" s="116" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C98" s="157"/>
       <c r="D98" s="158"/>
@@ -18062,13 +18143,13 @@
     </row>
     <row r="99" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A99" s="125" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B99" s="129" t="s">
         <v>326</v>
       </c>
       <c r="C99" s="129" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D99" s="133" t="s">
         <v>278</v>
@@ -18081,7 +18162,7 @@
         <v>160</v>
       </c>
       <c r="J99" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K99" s="130"/>
       <c r="L99" s="130"/>
@@ -18090,7 +18171,7 @@
       <c r="O99" s="130"/>
       <c r="P99" s="130"/>
       <c r="Q99" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="R99" s="130"/>
       <c r="S99" s="130"/>
@@ -18102,10 +18183,10 @@
     </row>
     <row r="100" spans="1:22" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A100" s="117" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B100" s="116" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C100" s="157"/>
       <c r="D100" s="158"/>
@@ -18130,13 +18211,13 @@
     </row>
     <row r="101" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A101" s="125" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B101" s="129" t="s">
         <v>327</v>
       </c>
       <c r="C101" s="129" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D101" s="133" t="s">
         <v>278</v>
@@ -18149,7 +18230,7 @@
         <v>160</v>
       </c>
       <c r="J101" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K101" s="130"/>
       <c r="L101" s="130"/>
@@ -18158,7 +18239,7 @@
       <c r="O101" s="130"/>
       <c r="P101" s="130"/>
       <c r="Q101" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="R101" s="130"/>
       <c r="S101" s="130"/>
@@ -18170,10 +18251,10 @@
     </row>
     <row r="102" spans="1:22" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A102" s="117" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B102" s="116" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C102" s="157"/>
       <c r="D102" s="158"/>
@@ -18198,13 +18279,13 @@
     </row>
     <row r="103" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A103" s="125" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B103" s="129" t="s">
         <v>328</v>
       </c>
       <c r="C103" s="129" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D103" s="133" t="s">
         <v>278</v>
@@ -18217,7 +18298,7 @@
         <v>160</v>
       </c>
       <c r="J103" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K103" s="130"/>
       <c r="L103" s="130"/>
@@ -18226,7 +18307,7 @@
       <c r="O103" s="130"/>
       <c r="P103" s="130"/>
       <c r="Q103" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="R103" s="130"/>
       <c r="S103" s="130"/>
@@ -18238,10 +18319,10 @@
     </row>
     <row r="104" spans="1:22" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A104" s="117" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B104" s="116" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C104" s="157"/>
       <c r="D104" s="158"/>
@@ -18266,13 +18347,13 @@
     </row>
     <row r="105" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A105" s="125" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B105" s="129" t="s">
         <v>329</v>
       </c>
       <c r="C105" s="129" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D105" s="133" t="s">
         <v>278</v>
@@ -18285,7 +18366,7 @@
         <v>160</v>
       </c>
       <c r="J105" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K105" s="130"/>
       <c r="L105" s="130"/>
@@ -18294,7 +18375,7 @@
       <c r="O105" s="130"/>
       <c r="P105" s="130"/>
       <c r="Q105" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="R105" s="130"/>
       <c r="S105" s="130"/>
@@ -18306,10 +18387,10 @@
     </row>
     <row r="106" spans="1:22" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A106" s="117" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B106" s="116" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C106" s="157"/>
       <c r="D106" s="158"/>
@@ -18334,13 +18415,13 @@
     </row>
     <row r="107" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A107" s="125" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B107" s="129" t="s">
         <v>330</v>
       </c>
       <c r="C107" s="129" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D107" s="133" t="s">
         <v>278</v>
@@ -18353,7 +18434,7 @@
         <v>160</v>
       </c>
       <c r="J107" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K107" s="130"/>
       <c r="L107" s="130"/>
@@ -18362,7 +18443,7 @@
       <c r="O107" s="130"/>
       <c r="P107" s="130"/>
       <c r="Q107" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="R107" s="130"/>
       <c r="S107" s="130"/>
@@ -18374,10 +18455,10 @@
     </row>
     <row r="108" spans="1:22" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A108" s="117" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B108" s="116" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C108" s="157"/>
       <c r="D108" s="158"/>
@@ -18402,13 +18483,13 @@
     </row>
     <row r="109" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A109" s="125" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B109" s="129" t="s">
         <v>331</v>
       </c>
       <c r="C109" s="129" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D109" s="133" t="s">
         <v>278</v>
@@ -18421,38 +18502,38 @@
         <v>160</v>
       </c>
       <c r="J109" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K109" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L109" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M109" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N109" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O109" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P109" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Q109" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="R109" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="S109" s="130"/>
       <c r="T109" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="U109" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="V109" s="132" t="s">
         <v>86</v>
@@ -18460,10 +18541,10 @@
     </row>
     <row r="110" spans="1:22" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A110" s="117" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B110" s="116" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C110" s="157"/>
       <c r="D110" s="158"/>
@@ -18488,13 +18569,13 @@
     </row>
     <row r="111" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A111" s="125" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B111" s="129" t="s">
         <v>332</v>
       </c>
       <c r="C111" s="129" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D111" s="133" t="s">
         <v>278</v>
@@ -18507,21 +18588,21 @@
         <v>160</v>
       </c>
       <c r="J111" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K111" s="130"/>
       <c r="L111" s="130"/>
       <c r="M111" s="130"/>
       <c r="N111" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O111" s="130"/>
       <c r="P111" s="130"/>
       <c r="Q111" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="R111" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="S111" s="130"/>
       <c r="T111" s="130"/>
@@ -18532,10 +18613,10 @@
     </row>
     <row r="112" spans="1:22" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A112" s="117" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B112" s="116" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C112" s="157"/>
       <c r="D112" s="158"/>
@@ -18560,13 +18641,13 @@
     </row>
     <row r="113" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A113" s="125" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B113" s="129" t="s">
         <v>333</v>
       </c>
       <c r="C113" s="129" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D113" s="133" t="s">
         <v>278</v>
@@ -18579,21 +18660,21 @@
         <v>160</v>
       </c>
       <c r="J113" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K113" s="130"/>
       <c r="L113" s="130"/>
       <c r="M113" s="130"/>
       <c r="N113" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O113" s="130"/>
       <c r="P113" s="130"/>
       <c r="Q113" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="R113" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="S113" s="130"/>
       <c r="T113" s="130"/>
@@ -18604,10 +18685,10 @@
     </row>
     <row r="114" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A114" s="117" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B114" s="116" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C114" s="157"/>
       <c r="D114" s="158"/>
@@ -18632,13 +18713,13 @@
     </row>
     <row r="115" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A115" s="125" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B115" s="129" t="s">
         <v>334</v>
       </c>
       <c r="C115" s="129" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D115" s="133" t="s">
         <v>278</v>
@@ -18651,21 +18732,21 @@
         <v>160</v>
       </c>
       <c r="J115" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K115" s="130"/>
       <c r="L115" s="130"/>
       <c r="M115" s="130"/>
       <c r="N115" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O115" s="130"/>
       <c r="P115" s="130"/>
       <c r="Q115" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="R115" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="S115" s="130"/>
       <c r="T115" s="130"/>
@@ -18676,10 +18757,10 @@
     </row>
     <row r="116" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A116" s="117" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B116" s="116" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C116" s="157"/>
       <c r="D116" s="158"/>
@@ -18704,13 +18785,13 @@
     </row>
     <row r="117" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A117" s="125" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B117" s="129" t="s">
         <v>335</v>
       </c>
       <c r="C117" s="129" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D117" s="133" t="s">
         <v>278</v>
@@ -18723,21 +18804,21 @@
         <v>160</v>
       </c>
       <c r="J117" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K117" s="130"/>
       <c r="L117" s="130"/>
       <c r="M117" s="130"/>
       <c r="N117" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O117" s="130"/>
       <c r="P117" s="130"/>
       <c r="Q117" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="R117" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="S117" s="130"/>
       <c r="T117" s="130"/>
@@ -18748,10 +18829,10 @@
     </row>
     <row r="118" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A118" s="117" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B118" s="116" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C118" s="157"/>
       <c r="D118" s="158"/>
@@ -18776,13 +18857,13 @@
     </row>
     <row r="119" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="125" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B119" s="129" t="s">
         <v>336</v>
       </c>
       <c r="C119" s="129" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D119" s="133" t="s">
         <v>278</v>
@@ -18795,21 +18876,21 @@
         <v>160</v>
       </c>
       <c r="J119" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K119" s="130"/>
       <c r="L119" s="130"/>
       <c r="M119" s="130"/>
       <c r="N119" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O119" s="130"/>
       <c r="P119" s="130"/>
       <c r="Q119" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="R119" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="S119" s="130"/>
       <c r="T119" s="130"/>
@@ -18820,10 +18901,10 @@
     </row>
     <row r="120" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A120" s="117" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B120" s="116" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C120" s="157"/>
       <c r="D120" s="158"/>
@@ -18848,13 +18929,13 @@
     </row>
     <row r="121" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="125" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B121" s="129" t="s">
         <v>337</v>
       </c>
       <c r="C121" s="129" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D121" s="13" t="s">
         <v>278</v>
@@ -18867,18 +18948,18 @@
         <v>160</v>
       </c>
       <c r="J121" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K121" s="130"/>
       <c r="L121" s="130"/>
       <c r="M121" s="130"/>
       <c r="N121" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O121" s="130"/>
       <c r="P121" s="130"/>
       <c r="Q121" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="R121" s="130"/>
       <c r="S121" s="130"/>
@@ -18890,10 +18971,10 @@
     </row>
     <row r="122" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A122" s="117" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B122" s="116" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C122" s="157"/>
       <c r="D122" s="158"/>
@@ -18918,13 +18999,13 @@
     </row>
     <row r="123" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A123" s="125" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B123" s="129" t="s">
         <v>338</v>
       </c>
       <c r="C123" s="129" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D123" s="13" t="s">
         <v>278</v>
@@ -18937,7 +19018,7 @@
         <v>160</v>
       </c>
       <c r="J123" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K123" s="130"/>
       <c r="L123" s="130"/>
@@ -18956,10 +19037,10 @@
     </row>
     <row r="124" spans="1:22" ht="21" x14ac:dyDescent="0.3">
       <c r="A124" s="117" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B124" s="112" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C124" s="157"/>
       <c r="D124" s="158"/>
@@ -18984,10 +19065,10 @@
     </row>
     <row r="125" spans="1:22" ht="24" x14ac:dyDescent="0.3">
       <c r="A125" s="117" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B125" s="116" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C125" s="157"/>
       <c r="D125" s="158"/>
@@ -19012,13 +19093,13 @@
     </row>
     <row r="126" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A126" s="125" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B126" s="129" t="s">
         <v>339</v>
       </c>
       <c r="C126" s="129" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D126" s="13" t="s">
         <v>278</v>
@@ -19031,13 +19112,13 @@
         <v>160</v>
       </c>
       <c r="J126" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K126" s="130"/>
       <c r="L126" s="130"/>
       <c r="M126" s="130"/>
       <c r="N126" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O126" s="130"/>
       <c r="P126" s="130"/>
@@ -19052,10 +19133,10 @@
     </row>
     <row r="127" spans="1:22" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A127" s="117" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B127" s="116" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C127" s="157"/>
       <c r="D127" s="158"/>
@@ -19080,13 +19161,13 @@
     </row>
     <row r="128" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A128" s="125" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B128" s="129" t="s">
         <v>340</v>
       </c>
       <c r="C128" s="129" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D128" s="13" t="s">
         <v>278</v>
@@ -19099,13 +19180,13 @@
         <v>160</v>
       </c>
       <c r="J128" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K128" s="130"/>
       <c r="L128" s="130"/>
       <c r="M128" s="130"/>
       <c r="N128" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O128" s="130"/>
       <c r="P128" s="130"/>
@@ -19120,10 +19201,10 @@
     </row>
     <row r="129" spans="1:22" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A129" s="117" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B129" s="116" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C129" s="157"/>
       <c r="D129" s="158"/>
@@ -19148,13 +19229,13 @@
     </row>
     <row r="130" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A130" s="125" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B130" s="129" t="s">
         <v>341</v>
       </c>
       <c r="C130" s="129" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D130" s="13" t="s">
         <v>278</v>
@@ -19167,13 +19248,13 @@
         <v>160</v>
       </c>
       <c r="J130" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K130" s="130"/>
       <c r="L130" s="130"/>
       <c r="M130" s="130"/>
       <c r="N130" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O130" s="130"/>
       <c r="P130" s="130"/>
@@ -19188,10 +19269,10 @@
     </row>
     <row r="131" spans="1:22" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A131" s="117" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B131" s="116" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C131" s="157"/>
       <c r="D131" s="158"/>
@@ -19216,13 +19297,13 @@
     </row>
     <row r="132" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A132" s="125" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B132" s="129" t="s">
         <v>342</v>
       </c>
       <c r="C132" s="129" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D132" s="13" t="s">
         <v>278</v>
@@ -19235,14 +19316,14 @@
         <v>160</v>
       </c>
       <c r="J132" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K132" s="130"/>
       <c r="L132" s="130"/>
       <c r="M132" s="130"/>
       <c r="N132" s="130"/>
       <c r="O132" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P132" s="130"/>
       <c r="Q132" s="130"/>
@@ -19256,10 +19337,10 @@
     </row>
     <row r="133" spans="1:22" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A133" s="117" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B133" s="116" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C133" s="157"/>
       <c r="D133" s="158"/>
@@ -19284,13 +19365,13 @@
     </row>
     <row r="134" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A134" s="125" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B134" s="129" t="s">
         <v>343</v>
       </c>
       <c r="C134" s="129" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D134" s="13" t="s">
         <v>278</v>
@@ -19303,16 +19384,16 @@
         <v>160</v>
       </c>
       <c r="J134" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K134" s="130"/>
       <c r="L134" s="130"/>
       <c r="M134" s="130"/>
       <c r="N134" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O134" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P134" s="130"/>
       <c r="Q134" s="130"/>
@@ -19326,10 +19407,10 @@
     </row>
     <row r="135" spans="1:22" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A135" s="117" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B135" s="116" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C135" s="157"/>
       <c r="D135" s="158"/>
@@ -19354,13 +19435,13 @@
     </row>
     <row r="136" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A136" s="125" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B136" s="129" t="s">
         <v>344</v>
       </c>
       <c r="C136" s="129" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D136" s="13" t="s">
         <v>278</v>
@@ -19373,16 +19454,16 @@
         <v>160</v>
       </c>
       <c r="J136" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K136" s="130"/>
       <c r="L136" s="130"/>
       <c r="M136" s="130"/>
       <c r="N136" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O136" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P136" s="130"/>
       <c r="Q136" s="130"/>
@@ -19396,10 +19477,10 @@
     </row>
     <row r="137" spans="1:22" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A137" s="117" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B137" s="116" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C137" s="157"/>
       <c r="D137" s="158"/>
@@ -19424,13 +19505,13 @@
     </row>
     <row r="138" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A138" s="125" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B138" s="129" t="s">
         <v>345</v>
       </c>
       <c r="C138" s="129" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D138" s="13" t="s">
         <v>278</v>
@@ -19443,16 +19524,16 @@
         <v>160</v>
       </c>
       <c r="J138" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K138" s="130"/>
       <c r="L138" s="130"/>
       <c r="M138" s="130"/>
       <c r="N138" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O138" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P138" s="130"/>
       <c r="Q138" s="130"/>
@@ -19466,10 +19547,10 @@
     </row>
     <row r="139" spans="1:22" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A139" s="117" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B139" s="116" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C139" s="157"/>
       <c r="D139" s="158"/>
@@ -19494,13 +19575,13 @@
     </row>
     <row r="140" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A140" s="125" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B140" s="129" t="s">
         <v>346</v>
       </c>
       <c r="C140" s="129" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D140" s="13" t="s">
         <v>278</v>
@@ -19513,16 +19594,16 @@
         <v>160</v>
       </c>
       <c r="J140" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K140" s="130"/>
       <c r="L140" s="130"/>
       <c r="M140" s="130"/>
       <c r="N140" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O140" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P140" s="130"/>
       <c r="Q140" s="130"/>
@@ -19536,10 +19617,10 @@
     </row>
     <row r="141" spans="1:22" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A141" s="117" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B141" s="116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C141" s="157"/>
       <c r="D141" s="158"/>
@@ -19564,13 +19645,13 @@
     </row>
     <row r="142" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A142" s="125" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B142" s="129" t="s">
         <v>347</v>
       </c>
       <c r="C142" s="129" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D142" s="13" t="s">
         <v>278</v>
@@ -19583,16 +19664,16 @@
         <v>160</v>
       </c>
       <c r="J142" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K142" s="130"/>
       <c r="L142" s="130"/>
       <c r="M142" s="130"/>
       <c r="N142" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O142" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P142" s="130"/>
       <c r="Q142" s="130"/>
@@ -19606,10 +19687,10 @@
     </row>
     <row r="143" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A143" s="117" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B143" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C143" s="157"/>
       <c r="D143" s="158"/>
@@ -19634,13 +19715,13 @@
     </row>
     <row r="144" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="125" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B144" s="129" t="s">
         <v>348</v>
       </c>
       <c r="C144" s="129" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D144" s="13" t="s">
         <v>278</v>
@@ -19653,19 +19734,19 @@
         <v>160</v>
       </c>
       <c r="J144" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K144" s="130"/>
       <c r="L144" s="130"/>
       <c r="M144" s="130"/>
       <c r="N144" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O144" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P144" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Q144" s="130"/>
       <c r="R144" s="130"/>
@@ -19678,10 +19759,10 @@
     </row>
     <row r="145" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A145" s="117" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B145" s="116" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C145" s="157"/>
       <c r="D145" s="158"/>
@@ -19706,13 +19787,13 @@
     </row>
     <row r="146" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A146" s="125" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B146" s="129" t="s">
         <v>349</v>
       </c>
       <c r="C146" s="129" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D146" s="13" t="s">
         <v>278</v>
@@ -19725,21 +19806,21 @@
         <v>160</v>
       </c>
       <c r="J146" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K146" s="130"/>
       <c r="L146" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M146" s="130"/>
       <c r="N146" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O146" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P146" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Q146" s="130"/>
       <c r="R146" s="130"/>
@@ -19752,10 +19833,10 @@
     </row>
     <row r="147" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A147" s="117" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B147" s="116" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C147" s="157"/>
       <c r="D147" s="158"/>
@@ -19780,13 +19861,13 @@
     </row>
     <row r="148" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="125" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B148" s="129" t="s">
         <v>350</v>
       </c>
       <c r="C148" s="129" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D148" s="13" t="s">
         <v>278</v>
@@ -19799,18 +19880,18 @@
         <v>160</v>
       </c>
       <c r="J148" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K148" s="130"/>
       <c r="L148" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M148" s="130"/>
       <c r="N148" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O148" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P148" s="130"/>
       <c r="Q148" s="130"/>
@@ -19824,10 +19905,10 @@
     </row>
     <row r="149" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A149" s="117" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B149" s="116" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C149" s="157"/>
       <c r="D149" s="158"/>
@@ -19852,13 +19933,13 @@
     </row>
     <row r="150" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="125" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B150" s="129" t="s">
         <v>351</v>
       </c>
       <c r="C150" s="129" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D150" s="13" t="s">
         <v>278</v>
@@ -19871,13 +19952,13 @@
         <v>160</v>
       </c>
       <c r="J150" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K150" s="130"/>
       <c r="L150" s="130"/>
       <c r="M150" s="130"/>
       <c r="N150" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O150" s="130"/>
       <c r="P150" s="130"/>
@@ -19892,10 +19973,10 @@
     </row>
     <row r="151" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A151" s="117" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B151" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C151" s="157"/>
       <c r="D151" s="158"/>
@@ -19920,13 +20001,13 @@
     </row>
     <row r="152" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="125" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B152" s="129" t="s">
         <v>352</v>
       </c>
       <c r="C152" s="129" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D152" s="13" t="s">
         <v>278</v>
@@ -19939,18 +20020,18 @@
         <v>160</v>
       </c>
       <c r="J152" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K152" s="130"/>
       <c r="L152" s="130"/>
       <c r="M152" s="130"/>
       <c r="N152" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O152" s="130"/>
       <c r="P152" s="130"/>
       <c r="Q152" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="R152" s="130"/>
       <c r="S152" s="130"/>
@@ -19962,10 +20043,10 @@
     </row>
     <row r="153" spans="1:22" ht="24" x14ac:dyDescent="0.3">
       <c r="A153" s="117" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B153" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C153" s="157"/>
       <c r="D153" s="158"/>
@@ -19990,13 +20071,13 @@
     </row>
     <row r="154" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A154" s="125" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B154" s="129" t="s">
         <v>353</v>
       </c>
       <c r="C154" s="129" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D154" s="13" t="s">
         <v>278</v>
@@ -20009,13 +20090,13 @@
         <v>160</v>
       </c>
       <c r="J154" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K154" s="130"/>
       <c r="L154" s="130"/>
       <c r="M154" s="130"/>
       <c r="N154" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O154" s="130"/>
       <c r="P154" s="130"/>
@@ -20030,10 +20111,10 @@
     </row>
     <row r="155" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A155" s="117" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B155" s="116" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C155" s="157"/>
       <c r="D155" s="158"/>
@@ -20058,13 +20139,13 @@
     </row>
     <row r="156" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A156" s="125" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B156" s="129" t="s">
         <v>354</v>
       </c>
       <c r="C156" s="129" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D156" s="133" t="s">
         <v>278</v>
@@ -20077,13 +20158,13 @@
         <v>160</v>
       </c>
       <c r="J156" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K156" s="130"/>
       <c r="L156" s="130"/>
       <c r="M156" s="130"/>
       <c r="N156" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O156" s="130"/>
       <c r="P156" s="130"/>
@@ -20098,10 +20179,10 @@
     </row>
     <row r="157" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A157" s="117" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B157" s="116" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C157" s="157"/>
       <c r="D157" s="158"/>
@@ -20126,13 +20207,13 @@
     </row>
     <row r="158" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A158" s="125" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B158" s="129" t="s">
         <v>355</v>
       </c>
       <c r="C158" s="129" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D158" s="133" t="s">
         <v>278</v>
@@ -20145,13 +20226,13 @@
         <v>160</v>
       </c>
       <c r="J158" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K158" s="130"/>
       <c r="L158" s="130"/>
       <c r="M158" s="130"/>
       <c r="N158" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O158" s="130"/>
       <c r="P158" s="130"/>
@@ -20166,10 +20247,10 @@
     </row>
     <row r="159" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A159" s="117" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B159" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C159" s="157"/>
       <c r="D159" s="158"/>
@@ -20194,13 +20275,13 @@
     </row>
     <row r="160" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A160" s="125" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B160" s="129" t="s">
         <v>356</v>
       </c>
       <c r="C160" s="129" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D160" s="133" t="s">
         <v>278</v>
@@ -20213,16 +20294,16 @@
         <v>160</v>
       </c>
       <c r="J160" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K160" s="130"/>
       <c r="L160" s="130"/>
       <c r="M160" s="130"/>
       <c r="N160" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O160" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P160" s="130"/>
       <c r="Q160" s="130"/>
@@ -20236,10 +20317,10 @@
     </row>
     <row r="161" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A161" s="117" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B161" s="116" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C161" s="157"/>
       <c r="D161" s="158"/>
@@ -20264,13 +20345,13 @@
     </row>
     <row r="162" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="125" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B162" s="129" t="s">
         <v>357</v>
       </c>
       <c r="C162" s="129" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D162" s="133" t="s">
         <v>278</v>
@@ -20283,16 +20364,16 @@
         <v>160</v>
       </c>
       <c r="J162" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K162" s="130"/>
       <c r="L162" s="130"/>
       <c r="M162" s="130"/>
       <c r="N162" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O162" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P162" s="130"/>
       <c r="Q162" s="130"/>
@@ -20306,10 +20387,10 @@
     </row>
     <row r="163" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="117" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B163" s="116" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C163" s="157"/>
       <c r="D163" s="158"/>
@@ -20334,13 +20415,13 @@
     </row>
     <row r="164" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A164" s="125" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B164" s="129" t="s">
         <v>358</v>
       </c>
       <c r="C164" s="129" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D164" s="133" t="s">
         <v>278</v>
@@ -20353,13 +20434,13 @@
         <v>160</v>
       </c>
       <c r="J164" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K164" s="130"/>
       <c r="L164" s="130"/>
       <c r="M164" s="130"/>
       <c r="N164" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O164" s="130"/>
       <c r="P164" s="130"/>
@@ -20374,10 +20455,10 @@
     </row>
     <row r="165" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A165" s="117" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B165" s="116" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C165" s="157"/>
       <c r="D165" s="158"/>
@@ -20402,13 +20483,13 @@
     </row>
     <row r="166" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="125" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B166" s="129" t="s">
         <v>359</v>
       </c>
       <c r="C166" s="129" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D166" s="133" t="s">
         <v>278</v>
@@ -20421,13 +20502,13 @@
         <v>160</v>
       </c>
       <c r="J166" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K166" s="130"/>
       <c r="L166" s="130"/>
       <c r="M166" s="130"/>
       <c r="N166" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O166" s="130"/>
       <c r="P166" s="130"/>
@@ -20442,10 +20523,10 @@
     </row>
     <row r="167" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="117" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B167" s="116" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C167" s="157"/>
       <c r="D167" s="158"/>
@@ -20470,13 +20551,13 @@
     </row>
     <row r="168" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A168" s="125" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B168" s="129" t="s">
         <v>360</v>
       </c>
       <c r="C168" s="129" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D168" s="133" t="s">
         <v>278</v>
@@ -20489,16 +20570,16 @@
         <v>160</v>
       </c>
       <c r="J168" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K168" s="130"/>
       <c r="L168" s="130"/>
       <c r="M168" s="130"/>
       <c r="N168" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O168" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P168" s="130"/>
       <c r="Q168" s="130"/>
@@ -20512,10 +20593,10 @@
     </row>
     <row r="169" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="117" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B169" s="116" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C169" s="157"/>
       <c r="D169" s="158"/>
@@ -20540,13 +20621,13 @@
     </row>
     <row r="170" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A170" s="125" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B170" s="129" t="s">
         <v>361</v>
       </c>
       <c r="C170" s="129" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D170" s="133" t="s">
         <v>278</v>
@@ -20559,16 +20640,16 @@
         <v>160</v>
       </c>
       <c r="J170" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K170" s="130"/>
       <c r="L170" s="130"/>
       <c r="M170" s="130"/>
       <c r="N170" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O170" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P170" s="130"/>
       <c r="Q170" s="130"/>
@@ -20582,10 +20663,10 @@
     </row>
     <row r="171" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="117" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B171" s="116" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C171" s="157"/>
       <c r="D171" s="158"/>
@@ -20610,13 +20691,13 @@
     </row>
     <row r="172" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A172" s="125" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B172" s="129" t="s">
         <v>362</v>
       </c>
       <c r="C172" s="129" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D172" s="133" t="s">
         <v>278</v>
@@ -20629,16 +20710,16 @@
         <v>160</v>
       </c>
       <c r="J172" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K172" s="130"/>
       <c r="L172" s="130"/>
       <c r="M172" s="130"/>
       <c r="N172" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O172" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P172" s="130"/>
       <c r="Q172" s="130"/>
@@ -20652,10 +20733,10 @@
     </row>
     <row r="173" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="117" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B173" s="116" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C173" s="157"/>
       <c r="D173" s="158"/>
@@ -20680,13 +20761,13 @@
     </row>
     <row r="174" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A174" s="125" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B174" s="129" t="s">
         <v>363</v>
       </c>
       <c r="C174" s="129" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D174" s="133" t="s">
         <v>278</v>
@@ -20699,14 +20780,14 @@
         <v>160</v>
       </c>
       <c r="J174" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K174" s="130"/>
       <c r="L174" s="130"/>
       <c r="M174" s="130"/>
       <c r="N174" s="130"/>
       <c r="O174" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P174" s="130"/>
       <c r="Q174" s="130"/>
@@ -20720,10 +20801,10 @@
     </row>
     <row r="175" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="117" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B175" s="116" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C175" s="157"/>
       <c r="D175" s="158"/>
@@ -20748,13 +20829,13 @@
     </row>
     <row r="176" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A176" s="125" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B176" s="129" t="s">
         <v>364</v>
       </c>
       <c r="C176" s="129" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D176" s="133" t="s">
         <v>278</v>
@@ -20767,16 +20848,16 @@
         <v>160</v>
       </c>
       <c r="J176" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K176" s="130"/>
       <c r="L176" s="130"/>
       <c r="M176" s="130"/>
       <c r="N176" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O176" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P176" s="130"/>
       <c r="Q176" s="130"/>
@@ -20790,10 +20871,10 @@
     </row>
     <row r="177" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="117" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B177" s="116" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C177" s="157"/>
       <c r="D177" s="158"/>
@@ -20818,13 +20899,13 @@
     </row>
     <row r="178" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A178" s="125" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B178" s="129" t="s">
         <v>365</v>
       </c>
       <c r="C178" s="129" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D178" s="133" t="s">
         <v>278</v>
@@ -20837,14 +20918,14 @@
         <v>160</v>
       </c>
       <c r="J178" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K178" s="130"/>
       <c r="L178" s="130"/>
       <c r="M178" s="130"/>
       <c r="N178" s="130"/>
       <c r="O178" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P178" s="130"/>
       <c r="Q178" s="130"/>
@@ -20858,10 +20939,10 @@
     </row>
     <row r="179" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="117" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B179" s="116" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C179" s="157"/>
       <c r="D179" s="158"/>
@@ -20886,13 +20967,13 @@
     </row>
     <row r="180" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A180" s="125" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B180" s="129" t="s">
         <v>366</v>
       </c>
       <c r="C180" s="129" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D180" s="133" t="s">
         <v>278</v>
@@ -20905,14 +20986,14 @@
         <v>160</v>
       </c>
       <c r="J180" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K180" s="130"/>
       <c r="L180" s="130"/>
       <c r="M180" s="130"/>
       <c r="N180" s="130"/>
       <c r="O180" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P180" s="130"/>
       <c r="Q180" s="130"/>
@@ -20926,10 +21007,10 @@
     </row>
     <row r="181" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B181" s="116" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C181" s="157"/>
       <c r="D181" s="158"/>
@@ -20954,13 +21035,13 @@
     </row>
     <row r="182" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A182" s="125" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B182" s="129" t="s">
         <v>367</v>
       </c>
       <c r="C182" s="129" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D182" s="133" t="s">
         <v>278</v>
@@ -20973,14 +21054,14 @@
         <v>160</v>
       </c>
       <c r="J182" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K182" s="130"/>
       <c r="L182" s="130"/>
       <c r="M182" s="130"/>
       <c r="N182" s="130"/>
       <c r="O182" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P182" s="130"/>
       <c r="Q182" s="130"/>
@@ -20994,10 +21075,10 @@
     </row>
     <row r="183" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="117" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B183" s="116" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C183" s="157"/>
       <c r="D183" s="158"/>
@@ -21022,13 +21103,13 @@
     </row>
     <row r="184" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A184" s="125" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B184" s="129" t="s">
         <v>368</v>
       </c>
       <c r="C184" s="129" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D184" s="133" t="s">
         <v>278</v>
@@ -21041,14 +21122,14 @@
         <v>160</v>
       </c>
       <c r="J184" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K184" s="130"/>
       <c r="L184" s="130"/>
       <c r="M184" s="130"/>
       <c r="N184" s="130"/>
       <c r="O184" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P184" s="130"/>
       <c r="Q184" s="130"/>
@@ -21062,10 +21143,10 @@
     </row>
     <row r="185" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A185" s="117" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B185" s="116" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C185" s="157"/>
       <c r="D185" s="158"/>
@@ -21090,13 +21171,13 @@
     </row>
     <row r="186" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="125" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B186" s="129" t="s">
         <v>369</v>
       </c>
       <c r="C186" s="129" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D186" s="133" t="s">
         <v>278</v>
@@ -21109,16 +21190,16 @@
         <v>160</v>
       </c>
       <c r="J186" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K186" s="130"/>
       <c r="L186" s="130"/>
       <c r="M186" s="130"/>
       <c r="N186" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O186" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P186" s="130"/>
       <c r="Q186" s="130"/>
@@ -21132,10 +21213,10 @@
     </row>
     <row r="187" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="117" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B187" s="116" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C187" s="157"/>
       <c r="D187" s="158"/>
@@ -21160,13 +21241,13 @@
     </row>
     <row r="188" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A188" s="125" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B188" s="129" t="s">
         <v>370</v>
       </c>
       <c r="C188" s="129" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D188" s="133" t="s">
         <v>278</v>
@@ -21179,16 +21260,16 @@
         <v>160</v>
       </c>
       <c r="J188" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K188" s="130"/>
       <c r="L188" s="130"/>
       <c r="M188" s="130"/>
       <c r="N188" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O188" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P188" s="130"/>
       <c r="Q188" s="130"/>
@@ -21202,10 +21283,10 @@
     </row>
     <row r="189" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="117" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B189" s="116" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C189" s="157"/>
       <c r="D189" s="158"/>
@@ -21230,13 +21311,13 @@
     </row>
     <row r="190" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A190" s="125" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B190" s="129" t="s">
         <v>371</v>
       </c>
       <c r="C190" s="129" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D190" s="133" t="s">
         <v>278</v>
@@ -21249,18 +21330,18 @@
         <v>160</v>
       </c>
       <c r="J190" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K190" s="130"/>
       <c r="L190" s="130"/>
       <c r="M190" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N190" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O190" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P190" s="130"/>
       <c r="Q190" s="130"/>
@@ -21274,10 +21355,10 @@
     </row>
     <row r="191" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="117" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B191" s="116" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C191" s="157"/>
       <c r="D191" s="158"/>
@@ -21302,13 +21383,13 @@
     </row>
     <row r="192" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A192" s="125" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B192" s="129" t="s">
         <v>372</v>
       </c>
       <c r="C192" s="129" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D192" s="133" t="s">
         <v>278</v>
@@ -21321,17 +21402,17 @@
         <v>160</v>
       </c>
       <c r="J192" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K192" s="130"/>
       <c r="L192" s="130"/>
       <c r="M192" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N192" s="130"/>
       <c r="O192" s="130"/>
       <c r="P192" s="130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Q192" s="130"/>
       <c r="R192" s="130"/>
@@ -21444,7 +21525,7 @@
       </c>
       <c r="I196" s="21">
         <f t="shared" ref="I196:I200" si="0">COUNTIF($I$3:$I$192,H196)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
@@ -21463,7 +21544,7 @@
       <c r="A197" s="118"/>
       <c r="B197" s="18"/>
       <c r="C197" s="121" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D197" s="122">
         <f>COUNTIF($D$3:$D$192,C197)</f>
@@ -21561,7 +21642,7 @@
       </c>
       <c r="I200" s="32">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
@@ -21601,6 +21682,7 @@
       <c r="V201" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:V192" xr:uid="{58DF91CF-F6FE-4C2B-A433-0262CC921579}"/>
   <mergeCells count="98">
     <mergeCell ref="C189:V189"/>
     <mergeCell ref="C191:V191"/>
@@ -23873,7 +23955,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -23881,6 +23963,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100157F6E45884F014A8D3F5A7681BEBEB2" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c7ace7d5f52736221751bac3a0597c3e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf8b8fda-94d2-4e9e-88e6-4f43b3fb9be3" xmlns:ns3="44eeb122-c776-4b6e-b615-e20dbecb008e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b9cad032653275cf634fc70499776107" ns2:_="" ns3:_="">
     <xsd:import namespace="cf8b8fda-94d2-4e9e-88e6-4f43b3fb9be3"/>
@@ -24085,22 +24176,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D96D6D79-9E00-4B6F-9FF6-E041541F7EA5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B08CFDD6-4E1A-43FE-A2A1-8C4C057278AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24119,27 +24209,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF5AF153-9E8A-42BA-A25F-E4F04C778B8C}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="44eeb122-c776-4b6e-b615-e20dbecb008e"/>
     <ds:schemaRef ds:uri="cf8b8fda-94d2-4e9e-88e6-4f43b3fb9be3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D96D6D79-9E00-4B6F-9FF6-E041541F7EA5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>